--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32974252749327</v>
+        <v>25.32974252749323</v>
       </c>
       <c r="C2">
-        <v>17.51260960639222</v>
+        <v>17.51260960639239</v>
       </c>
       <c r="D2">
-        <v>3.507964677810026</v>
+        <v>3.507964677809943</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.96276581038471</v>
+        <v>28.96276581038468</v>
       </c>
       <c r="G2">
-        <v>20.93483651978489</v>
+        <v>20.93483651978487</v>
       </c>
       <c r="H2">
-        <v>16.25463250898549</v>
+        <v>16.2546325089855</v>
       </c>
       <c r="I2">
         <v>10.77558160897656</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.5331507953525</v>
+        <v>18.53315079535253</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.58106159310381</v>
+        <v>23.58106159310386</v>
       </c>
       <c r="C3">
-        <v>16.32685082118772</v>
+        <v>16.32685082118779</v>
       </c>
       <c r="D3">
-        <v>3.394615296100668</v>
+        <v>3.394615296100619</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.49351419690888</v>
+        <v>27.49351419690881</v>
       </c>
       <c r="G3">
-        <v>20.06268089816209</v>
+        <v>20.06268089816201</v>
       </c>
       <c r="H3">
-        <v>15.96126539345772</v>
+        <v>15.96126539345762</v>
       </c>
       <c r="I3">
-        <v>10.09520443587397</v>
+        <v>10.09520443587396</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.1979628793825</v>
+        <v>17.19796287938252</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.44975497530215</v>
+        <v>22.4497549753021</v>
       </c>
       <c r="C4">
-        <v>15.56113193522635</v>
+        <v>15.56113193522624</v>
       </c>
       <c r="D4">
-        <v>3.323234934972539</v>
+        <v>3.323234934972483</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.59926022893389</v>
+        <v>26.59926022893402</v>
       </c>
       <c r="G4">
-        <v>19.54453735476901</v>
+        <v>19.54453735476916</v>
       </c>
       <c r="H4">
-        <v>15.80960509650481</v>
+        <v>15.809605096505</v>
       </c>
       <c r="I4">
-        <v>9.720914101726779</v>
+        <v>9.720914101726764</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.33871373081676</v>
+        <v>16.33871373081671</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97405775520635</v>
+        <v>21.97405775520636</v>
       </c>
       <c r="C5">
-        <v>15.23950470627399</v>
+        <v>15.23950470627397</v>
       </c>
       <c r="D5">
-        <v>3.293719007399059</v>
+        <v>3.293719007399149</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.23715315332479</v>
+        <v>26.23715315332484</v>
       </c>
       <c r="G5">
-        <v>19.33786043633866</v>
+        <v>19.33786043633873</v>
       </c>
       <c r="H5">
-        <v>15.75461764977085</v>
+        <v>15.75461764977096</v>
       </c>
       <c r="I5">
-        <v>9.567651675806287</v>
+        <v>9.567651675806284</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.97843632997022</v>
+        <v>15.97843632997024</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.894176469487</v>
+        <v>21.89417646948691</v>
       </c>
       <c r="C6">
-        <v>15.18551623309492</v>
+        <v>15.18551623309511</v>
       </c>
       <c r="D6">
-        <v>3.288792736792517</v>
+        <v>3.288792736792455</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.1771760535978</v>
+        <v>26.17717605359784</v>
       </c>
       <c r="G6">
-        <v>19.30381523183183</v>
+        <v>19.30381523183186</v>
       </c>
       <c r="H6">
-        <v>15.7458882227678</v>
+        <v>15.74588822276791</v>
       </c>
       <c r="I6">
-        <v>9.542161915830015</v>
+        <v>9.542161915830022</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.91799508173896</v>
+        <v>15.917995081739</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.44339924600765</v>
+        <v>22.44339924600758</v>
       </c>
       <c r="C7">
         <v>15.55683333996007</v>
       </c>
       <c r="D7">
-        <v>3.322838575514323</v>
+        <v>3.322838575514547</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.59436688822317</v>
+        <v>26.59436688822311</v>
       </c>
       <c r="G7">
-        <v>19.54173178668696</v>
+        <v>19.54173178668693</v>
       </c>
       <c r="H7">
-        <v>15.80883639001194</v>
+        <v>15.80883639001197</v>
       </c>
       <c r="I7">
-        <v>9.718849965239816</v>
+        <v>9.718849965239805</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.33389617189081</v>
+        <v>16.33389617189093</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73863330205421</v>
+        <v>24.73863330205427</v>
       </c>
       <c r="C8">
-        <v>17.11149853638894</v>
+        <v>17.1114985363889</v>
       </c>
       <c r="D8">
-        <v>3.46926323353443</v>
+        <v>3.469263233534328</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.45470627515489</v>
+        <v>28.45470627515492</v>
       </c>
       <c r="G8">
-        <v>20.63057011210396</v>
+        <v>20.63057011210392</v>
       </c>
       <c r="H8">
-        <v>16.14737083811518</v>
+        <v>16.14737083811508</v>
       </c>
       <c r="I8">
-        <v>10.50246084989578</v>
+        <v>10.50246084989579</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.0808327009735</v>
+        <v>18.08083270097348</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.79194272153984</v>
+        <v>28.79194272154001</v>
       </c>
       <c r="C9">
-        <v>19.86763434991518</v>
+        <v>19.86763434991523</v>
       </c>
       <c r="D9">
-        <v>3.741532667370997</v>
+        <v>3.741532667370959</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.15549949246875</v>
+        <v>32.15549949246876</v>
       </c>
       <c r="G9">
-        <v>22.90045062825546</v>
+        <v>22.90045062825541</v>
       </c>
       <c r="H9">
-        <v>17.05144094564234</v>
+        <v>17.05144094564217</v>
       </c>
       <c r="I9">
-        <v>12.39892314421944</v>
+        <v>12.39892314421946</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.20394909079625</v>
+        <v>21.20394909079629</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.5114193346398</v>
+        <v>31.51141933463973</v>
       </c>
       <c r="C10">
-        <v>21.72412097733416</v>
+        <v>21.72412097733409</v>
       </c>
       <c r="D10">
-        <v>3.931818280407342</v>
+        <v>3.931818280407419</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.90124723910452</v>
+        <v>34.90124723910448</v>
       </c>
       <c r="G10">
-        <v>24.64954491544606</v>
+        <v>24.64954491544604</v>
       </c>
       <c r="H10">
-        <v>17.88066007084729</v>
+        <v>17.8806600708473</v>
       </c>
       <c r="I10">
         <v>13.70476812183448</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.32992097706906</v>
+        <v>23.32992097706905</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.69604108984628</v>
+        <v>32.69604108984625</v>
       </c>
       <c r="C11">
-        <v>22.53467470342516</v>
+        <v>22.53467470342517</v>
       </c>
       <c r="D11">
-        <v>4.016201227284975</v>
+        <v>4.016201227285116</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.25398751269423</v>
+        <v>36.25398751269419</v>
       </c>
       <c r="G11">
-        <v>25.53105593417148</v>
+        <v>25.53105593417144</v>
       </c>
       <c r="H11">
-        <v>18.29759576721927</v>
+        <v>18.29759576721924</v>
       </c>
       <c r="I11">
-        <v>14.28287470762286</v>
+        <v>14.28287470762285</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.26453032826971</v>
+        <v>24.26453032826974</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.13741604333112</v>
+        <v>33.13741604333114</v>
       </c>
       <c r="C12">
-        <v>22.83697102949034</v>
+        <v>22.8369710294903</v>
       </c>
       <c r="D12">
-        <v>4.047841252432927</v>
+        <v>4.04784125243282</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.78011122713363</v>
+        <v>36.78011122713368</v>
       </c>
       <c r="G12">
-        <v>25.91408628482188</v>
+        <v>25.91408628482195</v>
       </c>
       <c r="H12">
-        <v>18.46152195803995</v>
+        <v>18.46152195803996</v>
       </c>
       <c r="I12">
-        <v>14.49979197462384</v>
+        <v>14.49979197462387</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.61415687858866</v>
+        <v>24.61415687858865</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.04267326153792</v>
+        <v>33.04267326153796</v>
       </c>
       <c r="C13">
-        <v>22.77206838746526</v>
+        <v>22.7720683874653</v>
       </c>
       <c r="D13">
-        <v>4.041040935139443</v>
+        <v>4.041040935139605</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.66684716160783</v>
+        <v>36.66684716160798</v>
       </c>
       <c r="G13">
-        <v>25.8316178627928</v>
+        <v>25.8316178627929</v>
       </c>
       <c r="H13">
-        <v>18.42594325554274</v>
+        <v>18.42594325554271</v>
       </c>
       <c r="I13">
-        <v>14.45315878689878</v>
+        <v>14.45315878689874</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.53904264322832</v>
+        <v>24.53904264322838</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.73249584485088</v>
+        <v>32.73249584485077</v>
       </c>
       <c r="C14">
-        <v>22.55963634859874</v>
+        <v>22.55963634859878</v>
       </c>
       <c r="D14">
-        <v>4.018810551997571</v>
+        <v>4.018810551997435</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.29729354101693</v>
+        <v>36.2972935410168</v>
       </c>
       <c r="G14">
-        <v>25.56257948129883</v>
+        <v>25.56257948129874</v>
       </c>
       <c r="H14">
-        <v>18.31095900004875</v>
+        <v>18.31095900004872</v>
       </c>
       <c r="I14">
-        <v>14.30075887112482</v>
+        <v>14.30075887112474</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.29337789778603</v>
+        <v>24.29337789778595</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.54157404353813</v>
+        <v>32.5415740435381</v>
       </c>
       <c r="C15">
-        <v>22.4289187063637</v>
+        <v>22.42891870636378</v>
       </c>
       <c r="D15">
-        <v>4.005152966616571</v>
+        <v>4.005152966616477</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.07078767048557</v>
+        <v>36.07078767048558</v>
       </c>
       <c r="G15">
-        <v>25.39770855693509</v>
+        <v>25.39770855693511</v>
       </c>
       <c r="H15">
-        <v>18.24132488543925</v>
+        <v>18.24132488543926</v>
       </c>
       <c r="I15">
-        <v>14.20715852307322</v>
+        <v>14.20715852307327</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.14235480086287</v>
+        <v>24.14235480086292</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.43297288449337</v>
+        <v>31.43297288449335</v>
       </c>
       <c r="C16">
-        <v>21.670485784406</v>
+        <v>21.67048578440589</v>
       </c>
       <c r="D16">
-        <v>3.926259659878618</v>
+        <v>3.926259659878577</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.81931481423139</v>
+        <v>34.81931481423136</v>
       </c>
       <c r="G16">
         <v>24.59670803673475</v>
       </c>
       <c r="H16">
-        <v>17.85423925502929</v>
+        <v>17.85423925502935</v>
       </c>
       <c r="I16">
-        <v>13.66669096748021</v>
+        <v>13.6666909674802</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.2682196779609</v>
+        <v>23.26821967796088</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73966388797041</v>
+        <v>30.73966388797038</v>
       </c>
       <c r="C17">
-        <v>21.19667346878443</v>
+        <v>21.19667346878433</v>
       </c>
       <c r="D17">
-        <v>3.877301312708462</v>
+        <v>3.877301312708567</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.10209976408971</v>
+        <v>34.10209976408963</v>
       </c>
       <c r="G17">
-        <v>24.13578043502533</v>
+        <v>24.1357804350253</v>
       </c>
       <c r="H17">
-        <v>17.62717554131928</v>
+        <v>17.62717554131929</v>
       </c>
       <c r="I17">
-        <v>13.33124687122377</v>
+        <v>13.33124687122372</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.72389855463447</v>
+        <v>22.7238985546344</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.33592911752906</v>
+        <v>30.33592911752895</v>
       </c>
       <c r="C18">
-        <v>20.92093535915678</v>
+        <v>20.92093535915657</v>
       </c>
       <c r="D18">
-        <v>3.848936455694746</v>
+        <v>3.848936455694887</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>33.69022577363654</v>
       </c>
       <c r="G18">
-        <v>23.87242384436933</v>
+        <v>23.87242384436935</v>
       </c>
       <c r="H18">
-        <v>17.50029245099235</v>
+        <v>17.50029245099243</v>
       </c>
       <c r="I18">
-        <v>13.13678938095822</v>
+        <v>13.13678938095819</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.40773404925607</v>
+        <v>22.40773404925602</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.1983697996881</v>
+        <v>30.19836979968809</v>
       </c>
       <c r="C19">
-        <v>20.82701632668385</v>
+        <v>20.82701632668379</v>
       </c>
       <c r="D19">
         <v>3.839297428292055</v>
@@ -1070,22 +1070,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.55087781700288</v>
+        <v>33.55087781700298</v>
       </c>
       <c r="G19">
-        <v>23.78355315332833</v>
+        <v>23.78355315332843</v>
       </c>
       <c r="H19">
-        <v>17.45796090583935</v>
+        <v>17.4579609058394</v>
       </c>
       <c r="I19">
-        <v>13.07068030284412</v>
+        <v>13.07068030284415</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.30014535588457</v>
+        <v>22.30014535588462</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81397906240643</v>
+        <v>30.81397906240645</v>
       </c>
       <c r="C20">
-        <v>21.24744256013126</v>
+        <v>21.24744256013131</v>
       </c>
       <c r="D20">
-        <v>3.882534279240156</v>
+        <v>3.882534279240284</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.17837982730528</v>
+        <v>34.17837982730526</v>
       </c>
       <c r="G20">
-        <v>24.18466403836439</v>
+        <v>24.18466403836436</v>
       </c>
       <c r="H20">
-        <v>17.65095975666835</v>
+        <v>17.65095975666831</v>
       </c>
       <c r="I20">
-        <v>13.36711068671069</v>
+        <v>13.36711068671065</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.82379546217677</v>
+        <v>32.82379546217679</v>
       </c>
       <c r="C21">
-        <v>22.62215669892877</v>
+        <v>22.62215669892878</v>
       </c>
       <c r="D21">
-        <v>4.025348659231302</v>
+        <v>4.02534865923128</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.40586942741153</v>
+        <v>36.40586942741157</v>
       </c>
       <c r="G21">
-        <v>25.64161794442715</v>
+        <v>25.6416179444272</v>
       </c>
       <c r="H21">
-        <v>18.34456592562885</v>
+        <v>18.34456592562887</v>
       </c>
       <c r="I21">
-        <v>14.34557414903155</v>
+        <v>14.34557414903158</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.36564868491712</v>
+        <v>24.36564868491714</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.09545256454014</v>
+        <v>34.09545256454027</v>
       </c>
       <c r="C22">
-        <v>23.49368717169419</v>
+        <v>23.49368717169422</v>
       </c>
       <c r="D22">
-        <v>4.116858876404772</v>
+        <v>4.116858876404765</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.93548337319655</v>
+        <v>37.93548337319675</v>
       </c>
       <c r="G22">
-        <v>26.75562397748623</v>
+        <v>26.75562397748642</v>
       </c>
       <c r="H22">
-        <v>18.8332699659366</v>
+        <v>18.83326996593664</v>
       </c>
       <c r="I22">
-        <v>14.97357065229327</v>
+        <v>14.97357065229325</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.37576508550596</v>
+        <v>25.37576508550594</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.4204564964309</v>
+        <v>33.42045649643089</v>
       </c>
       <c r="C23">
-        <v>23.0309097397458</v>
+        <v>23.03090973974585</v>
       </c>
       <c r="D23">
-        <v>4.068184432683557</v>
+        <v>4.068184432683529</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,13 +1225,13 @@
         <v>37.1195523174916</v>
       </c>
       <c r="G23">
-        <v>26.16126744451272</v>
+        <v>26.16126744451273</v>
       </c>
       <c r="H23">
-        <v>18.56908390680301</v>
+        <v>18.56908390680298</v>
       </c>
       <c r="I23">
-        <v>14.63934057564033</v>
+        <v>14.63934057564032</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.78039721331298</v>
+        <v>30.78039721331295</v>
       </c>
       <c r="C24">
-        <v>21.22450026610035</v>
+        <v>21.22450026610032</v>
       </c>
       <c r="D24">
-        <v>3.880169134146318</v>
+        <v>3.880169134146361</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.14389218884612</v>
+        <v>34.14389218884605</v>
       </c>
       <c r="G24">
-        <v>24.16255867630588</v>
+        <v>24.16255867630585</v>
       </c>
       <c r="H24">
-        <v>17.64019554089207</v>
+        <v>17.64019554089203</v>
       </c>
       <c r="I24">
-        <v>13.35090168013164</v>
+        <v>13.35090168013166</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.75582962522651</v>
+        <v>22.75582962522654</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74192959278026</v>
+        <v>27.74192959278028</v>
       </c>
       <c r="C25">
-        <v>19.15239607996001</v>
+        <v>19.15239607996005</v>
       </c>
       <c r="D25">
-        <v>3.669553437419456</v>
+        <v>3.669553437419482</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.14965770869518</v>
+        <v>31.14965770869521</v>
       </c>
       <c r="G25">
-        <v>22.27223518318023</v>
+        <v>22.27223518318021</v>
       </c>
       <c r="H25">
-        <v>16.77919127638953</v>
+        <v>16.77919127638948</v>
       </c>
       <c r="I25">
         <v>11.90217680769285</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.38991936098418</v>
+        <v>20.38991936098421</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32974252749323</v>
+        <v>25.32974252749327</v>
       </c>
       <c r="C2">
-        <v>17.51260960639239</v>
+        <v>17.51260960639222</v>
       </c>
       <c r="D2">
-        <v>3.507964677809943</v>
+        <v>3.507964677810026</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.96276581038468</v>
+        <v>28.96276581038471</v>
       </c>
       <c r="G2">
-        <v>20.93483651978487</v>
+        <v>20.93483651978489</v>
       </c>
       <c r="H2">
-        <v>16.2546325089855</v>
+        <v>16.25463250898549</v>
       </c>
       <c r="I2">
         <v>10.77558160897656</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.53315079535253</v>
+        <v>18.5331507953525</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.58106159310386</v>
+        <v>23.58106159310381</v>
       </c>
       <c r="C3">
-        <v>16.32685082118779</v>
+        <v>16.32685082118772</v>
       </c>
       <c r="D3">
-        <v>3.394615296100619</v>
+        <v>3.394615296100668</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.49351419690881</v>
+        <v>27.49351419690888</v>
       </c>
       <c r="G3">
-        <v>20.06268089816201</v>
+        <v>20.06268089816209</v>
       </c>
       <c r="H3">
-        <v>15.96126539345762</v>
+        <v>15.96126539345772</v>
       </c>
       <c r="I3">
-        <v>10.09520443587396</v>
+        <v>10.09520443587397</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.19796287938252</v>
+        <v>17.1979628793825</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.4497549753021</v>
+        <v>22.44975497530215</v>
       </c>
       <c r="C4">
-        <v>15.56113193522624</v>
+        <v>15.56113193522635</v>
       </c>
       <c r="D4">
-        <v>3.323234934972483</v>
+        <v>3.323234934972539</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.59926022893402</v>
+        <v>26.59926022893389</v>
       </c>
       <c r="G4">
-        <v>19.54453735476916</v>
+        <v>19.54453735476901</v>
       </c>
       <c r="H4">
-        <v>15.809605096505</v>
+        <v>15.80960509650481</v>
       </c>
       <c r="I4">
-        <v>9.720914101726764</v>
+        <v>9.720914101726779</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.33871373081671</v>
+        <v>16.33871373081676</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97405775520636</v>
+        <v>21.97405775520635</v>
       </c>
       <c r="C5">
-        <v>15.23950470627397</v>
+        <v>15.23950470627399</v>
       </c>
       <c r="D5">
-        <v>3.293719007399149</v>
+        <v>3.293719007399059</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.23715315332484</v>
+        <v>26.23715315332479</v>
       </c>
       <c r="G5">
-        <v>19.33786043633873</v>
+        <v>19.33786043633866</v>
       </c>
       <c r="H5">
-        <v>15.75461764977096</v>
+        <v>15.75461764977085</v>
       </c>
       <c r="I5">
-        <v>9.567651675806284</v>
+        <v>9.567651675806287</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.97843632997024</v>
+        <v>15.97843632997022</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.89417646948691</v>
+        <v>21.894176469487</v>
       </c>
       <c r="C6">
-        <v>15.18551623309511</v>
+        <v>15.18551623309492</v>
       </c>
       <c r="D6">
-        <v>3.288792736792455</v>
+        <v>3.288792736792517</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.17717605359784</v>
+        <v>26.1771760535978</v>
       </c>
       <c r="G6">
-        <v>19.30381523183186</v>
+        <v>19.30381523183183</v>
       </c>
       <c r="H6">
-        <v>15.74588822276791</v>
+        <v>15.7458882227678</v>
       </c>
       <c r="I6">
-        <v>9.542161915830022</v>
+        <v>9.542161915830015</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.917995081739</v>
+        <v>15.91799508173896</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.44339924600758</v>
+        <v>22.44339924600765</v>
       </c>
       <c r="C7">
         <v>15.55683333996007</v>
       </c>
       <c r="D7">
-        <v>3.322838575514547</v>
+        <v>3.322838575514323</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.59436688822311</v>
+        <v>26.59436688822317</v>
       </c>
       <c r="G7">
-        <v>19.54173178668693</v>
+        <v>19.54173178668696</v>
       </c>
       <c r="H7">
-        <v>15.80883639001197</v>
+        <v>15.80883639001194</v>
       </c>
       <c r="I7">
-        <v>9.718849965239805</v>
+        <v>9.718849965239816</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.33389617189093</v>
+        <v>16.33389617189081</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73863330205427</v>
+        <v>24.73863330205421</v>
       </c>
       <c r="C8">
-        <v>17.1114985363889</v>
+        <v>17.11149853638894</v>
       </c>
       <c r="D8">
-        <v>3.469263233534328</v>
+        <v>3.46926323353443</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.45470627515492</v>
+        <v>28.45470627515489</v>
       </c>
       <c r="G8">
-        <v>20.63057011210392</v>
+        <v>20.63057011210396</v>
       </c>
       <c r="H8">
-        <v>16.14737083811508</v>
+        <v>16.14737083811518</v>
       </c>
       <c r="I8">
-        <v>10.50246084989579</v>
+        <v>10.50246084989578</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.08083270097348</v>
+        <v>18.0808327009735</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.79194272154001</v>
+        <v>28.79194272153984</v>
       </c>
       <c r="C9">
-        <v>19.86763434991523</v>
+        <v>19.86763434991518</v>
       </c>
       <c r="D9">
-        <v>3.741532667370959</v>
+        <v>3.741532667370997</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.15549949246876</v>
+        <v>32.15549949246875</v>
       </c>
       <c r="G9">
-        <v>22.90045062825541</v>
+        <v>22.90045062825546</v>
       </c>
       <c r="H9">
-        <v>17.05144094564217</v>
+        <v>17.05144094564234</v>
       </c>
       <c r="I9">
-        <v>12.39892314421946</v>
+        <v>12.39892314421944</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.20394909079629</v>
+        <v>21.20394909079625</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.51141933463973</v>
+        <v>31.5114193346398</v>
       </c>
       <c r="C10">
-        <v>21.72412097733409</v>
+        <v>21.72412097733416</v>
       </c>
       <c r="D10">
-        <v>3.931818280407419</v>
+        <v>3.931818280407342</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.90124723910448</v>
+        <v>34.90124723910452</v>
       </c>
       <c r="G10">
-        <v>24.64954491544604</v>
+        <v>24.64954491544606</v>
       </c>
       <c r="H10">
-        <v>17.8806600708473</v>
+        <v>17.88066007084729</v>
       </c>
       <c r="I10">
         <v>13.70476812183448</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.32992097706905</v>
+        <v>23.32992097706906</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.69604108984625</v>
+        <v>32.69604108984628</v>
       </c>
       <c r="C11">
-        <v>22.53467470342517</v>
+        <v>22.53467470342516</v>
       </c>
       <c r="D11">
-        <v>4.016201227285116</v>
+        <v>4.016201227284975</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.25398751269419</v>
+        <v>36.25398751269423</v>
       </c>
       <c r="G11">
-        <v>25.53105593417144</v>
+        <v>25.53105593417148</v>
       </c>
       <c r="H11">
-        <v>18.29759576721924</v>
+        <v>18.29759576721927</v>
       </c>
       <c r="I11">
-        <v>14.28287470762285</v>
+        <v>14.28287470762286</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.26453032826974</v>
+        <v>24.26453032826971</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.13741604333114</v>
+        <v>33.13741604333112</v>
       </c>
       <c r="C12">
-        <v>22.8369710294903</v>
+        <v>22.83697102949034</v>
       </c>
       <c r="D12">
-        <v>4.04784125243282</v>
+        <v>4.047841252432927</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.78011122713368</v>
+        <v>36.78011122713363</v>
       </c>
       <c r="G12">
-        <v>25.91408628482195</v>
+        <v>25.91408628482188</v>
       </c>
       <c r="H12">
-        <v>18.46152195803996</v>
+        <v>18.46152195803995</v>
       </c>
       <c r="I12">
-        <v>14.49979197462387</v>
+        <v>14.49979197462384</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.61415687858865</v>
+        <v>24.61415687858866</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.04267326153796</v>
+        <v>33.04267326153792</v>
       </c>
       <c r="C13">
-        <v>22.7720683874653</v>
+        <v>22.77206838746526</v>
       </c>
       <c r="D13">
-        <v>4.041040935139605</v>
+        <v>4.041040935139443</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.66684716160798</v>
+        <v>36.66684716160783</v>
       </c>
       <c r="G13">
-        <v>25.8316178627929</v>
+        <v>25.8316178627928</v>
       </c>
       <c r="H13">
-        <v>18.42594325554271</v>
+        <v>18.42594325554274</v>
       </c>
       <c r="I13">
-        <v>14.45315878689874</v>
+        <v>14.45315878689878</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.53904264322838</v>
+        <v>24.53904264322832</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.73249584485077</v>
+        <v>32.73249584485088</v>
       </c>
       <c r="C14">
-        <v>22.55963634859878</v>
+        <v>22.55963634859874</v>
       </c>
       <c r="D14">
-        <v>4.018810551997435</v>
+        <v>4.018810551997571</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.2972935410168</v>
+        <v>36.29729354101693</v>
       </c>
       <c r="G14">
-        <v>25.56257948129874</v>
+        <v>25.56257948129883</v>
       </c>
       <c r="H14">
-        <v>18.31095900004872</v>
+        <v>18.31095900004875</v>
       </c>
       <c r="I14">
-        <v>14.30075887112474</v>
+        <v>14.30075887112482</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.29337789778595</v>
+        <v>24.29337789778603</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.5415740435381</v>
+        <v>32.54157404353813</v>
       </c>
       <c r="C15">
-        <v>22.42891870636378</v>
+        <v>22.4289187063637</v>
       </c>
       <c r="D15">
-        <v>4.005152966616477</v>
+        <v>4.005152966616571</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.07078767048558</v>
+        <v>36.07078767048557</v>
       </c>
       <c r="G15">
-        <v>25.39770855693511</v>
+        <v>25.39770855693509</v>
       </c>
       <c r="H15">
-        <v>18.24132488543926</v>
+        <v>18.24132488543925</v>
       </c>
       <c r="I15">
-        <v>14.20715852307327</v>
+        <v>14.20715852307322</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.14235480086292</v>
+        <v>24.14235480086287</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.43297288449335</v>
+        <v>31.43297288449337</v>
       </c>
       <c r="C16">
-        <v>21.67048578440589</v>
+        <v>21.670485784406</v>
       </c>
       <c r="D16">
-        <v>3.926259659878577</v>
+        <v>3.926259659878618</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.81931481423136</v>
+        <v>34.81931481423139</v>
       </c>
       <c r="G16">
         <v>24.59670803673475</v>
       </c>
       <c r="H16">
-        <v>17.85423925502935</v>
+        <v>17.85423925502929</v>
       </c>
       <c r="I16">
-        <v>13.6666909674802</v>
+        <v>13.66669096748021</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.26821967796088</v>
+        <v>23.2682196779609</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73966388797038</v>
+        <v>30.73966388797041</v>
       </c>
       <c r="C17">
-        <v>21.19667346878433</v>
+        <v>21.19667346878443</v>
       </c>
       <c r="D17">
-        <v>3.877301312708567</v>
+        <v>3.877301312708462</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.10209976408963</v>
+        <v>34.10209976408971</v>
       </c>
       <c r="G17">
-        <v>24.1357804350253</v>
+        <v>24.13578043502533</v>
       </c>
       <c r="H17">
-        <v>17.62717554131929</v>
+        <v>17.62717554131928</v>
       </c>
       <c r="I17">
-        <v>13.33124687122372</v>
+        <v>13.33124687122377</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.7238985546344</v>
+        <v>22.72389855463447</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.33592911752895</v>
+        <v>30.33592911752906</v>
       </c>
       <c r="C18">
-        <v>20.92093535915657</v>
+        <v>20.92093535915678</v>
       </c>
       <c r="D18">
-        <v>3.848936455694887</v>
+        <v>3.848936455694746</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>33.69022577363654</v>
       </c>
       <c r="G18">
-        <v>23.87242384436935</v>
+        <v>23.87242384436933</v>
       </c>
       <c r="H18">
-        <v>17.50029245099243</v>
+        <v>17.50029245099235</v>
       </c>
       <c r="I18">
-        <v>13.13678938095819</v>
+        <v>13.13678938095822</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.40773404925602</v>
+        <v>22.40773404925607</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.19836979968809</v>
+        <v>30.1983697996881</v>
       </c>
       <c r="C19">
-        <v>20.82701632668379</v>
+        <v>20.82701632668385</v>
       </c>
       <c r="D19">
         <v>3.839297428292055</v>
@@ -1070,22 +1070,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.55087781700298</v>
+        <v>33.55087781700288</v>
       </c>
       <c r="G19">
-        <v>23.78355315332843</v>
+        <v>23.78355315332833</v>
       </c>
       <c r="H19">
-        <v>17.4579609058394</v>
+        <v>17.45796090583935</v>
       </c>
       <c r="I19">
-        <v>13.07068030284415</v>
+        <v>13.07068030284412</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.30014535588462</v>
+        <v>22.30014535588457</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81397906240645</v>
+        <v>30.81397906240643</v>
       </c>
       <c r="C20">
-        <v>21.24744256013131</v>
+        <v>21.24744256013126</v>
       </c>
       <c r="D20">
-        <v>3.882534279240284</v>
+        <v>3.882534279240156</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.17837982730526</v>
+        <v>34.17837982730528</v>
       </c>
       <c r="G20">
-        <v>24.18466403836436</v>
+        <v>24.18466403836439</v>
       </c>
       <c r="H20">
-        <v>17.65095975666831</v>
+        <v>17.65095975666835</v>
       </c>
       <c r="I20">
-        <v>13.36711068671065</v>
+        <v>13.36711068671069</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.82379546217679</v>
+        <v>32.82379546217677</v>
       </c>
       <c r="C21">
-        <v>22.62215669892878</v>
+        <v>22.62215669892877</v>
       </c>
       <c r="D21">
-        <v>4.02534865923128</v>
+        <v>4.025348659231302</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.40586942741157</v>
+        <v>36.40586942741153</v>
       </c>
       <c r="G21">
-        <v>25.6416179444272</v>
+        <v>25.64161794442715</v>
       </c>
       <c r="H21">
-        <v>18.34456592562887</v>
+        <v>18.34456592562885</v>
       </c>
       <c r="I21">
-        <v>14.34557414903158</v>
+        <v>14.34557414903155</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.36564868491714</v>
+        <v>24.36564868491712</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.09545256454027</v>
+        <v>34.09545256454014</v>
       </c>
       <c r="C22">
-        <v>23.49368717169422</v>
+        <v>23.49368717169419</v>
       </c>
       <c r="D22">
-        <v>4.116858876404765</v>
+        <v>4.116858876404772</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.93548337319675</v>
+        <v>37.93548337319655</v>
       </c>
       <c r="G22">
-        <v>26.75562397748642</v>
+        <v>26.75562397748623</v>
       </c>
       <c r="H22">
-        <v>18.83326996593664</v>
+        <v>18.8332699659366</v>
       </c>
       <c r="I22">
-        <v>14.97357065229325</v>
+        <v>14.97357065229327</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.37576508550594</v>
+        <v>25.37576508550596</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.42045649643089</v>
+        <v>33.4204564964309</v>
       </c>
       <c r="C23">
-        <v>23.03090973974585</v>
+        <v>23.0309097397458</v>
       </c>
       <c r="D23">
-        <v>4.068184432683529</v>
+        <v>4.068184432683557</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,13 +1225,13 @@
         <v>37.1195523174916</v>
       </c>
       <c r="G23">
-        <v>26.16126744451273</v>
+        <v>26.16126744451272</v>
       </c>
       <c r="H23">
-        <v>18.56908390680298</v>
+        <v>18.56908390680301</v>
       </c>
       <c r="I23">
-        <v>14.63934057564032</v>
+        <v>14.63934057564033</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.78039721331295</v>
+        <v>30.78039721331298</v>
       </c>
       <c r="C24">
-        <v>21.22450026610032</v>
+        <v>21.22450026610035</v>
       </c>
       <c r="D24">
-        <v>3.880169134146361</v>
+        <v>3.880169134146318</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.14389218884605</v>
+        <v>34.14389218884612</v>
       </c>
       <c r="G24">
-        <v>24.16255867630585</v>
+        <v>24.16255867630588</v>
       </c>
       <c r="H24">
-        <v>17.64019554089203</v>
+        <v>17.64019554089207</v>
       </c>
       <c r="I24">
-        <v>13.35090168013166</v>
+        <v>13.35090168013164</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.75582962522654</v>
+        <v>22.75582962522651</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74192959278028</v>
+        <v>27.74192959278026</v>
       </c>
       <c r="C25">
-        <v>19.15239607996005</v>
+        <v>19.15239607996001</v>
       </c>
       <c r="D25">
-        <v>3.669553437419482</v>
+        <v>3.669553437419456</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.14965770869521</v>
+        <v>31.14965770869518</v>
       </c>
       <c r="G25">
-        <v>22.27223518318021</v>
+        <v>22.27223518318023</v>
       </c>
       <c r="H25">
-        <v>16.77919127638948</v>
+        <v>16.77919127638953</v>
       </c>
       <c r="I25">
         <v>11.90217680769285</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.38991936098421</v>
+        <v>20.38991936098418</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32974252749327</v>
+        <v>25.32921118872636</v>
       </c>
       <c r="C2">
-        <v>17.51260960639222</v>
+        <v>17.50869555182513</v>
       </c>
       <c r="D2">
-        <v>3.507964677810026</v>
+        <v>3.511225845848054</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.96276581038471</v>
+        <v>28.94418722883308</v>
       </c>
       <c r="G2">
-        <v>20.93483651978489</v>
+        <v>19.93682547881955</v>
       </c>
       <c r="H2">
-        <v>16.25463250898549</v>
+        <v>20.96817031939286</v>
       </c>
       <c r="I2">
-        <v>10.77558160897656</v>
+        <v>16.24226842019498</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.77510640680983</v>
       </c>
       <c r="K2">
-        <v>18.5331507953525</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>18.53335901232925</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.58106159310381</v>
+        <v>23.58071396945155</v>
       </c>
       <c r="C3">
-        <v>16.32685082118772</v>
+        <v>16.32336683621911</v>
       </c>
       <c r="D3">
-        <v>3.394615296100668</v>
+        <v>3.397441794533283</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.49351419690888</v>
+        <v>27.47617731784551</v>
       </c>
       <c r="G3">
-        <v>20.06268089816209</v>
+        <v>18.79112917342715</v>
       </c>
       <c r="H3">
-        <v>15.96126539345772</v>
+        <v>20.09470596736101</v>
       </c>
       <c r="I3">
-        <v>10.09520443587397</v>
+        <v>15.94992972811448</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.09469736470843</v>
       </c>
       <c r="K3">
-        <v>17.1979628793825</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>17.19822705690311</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.44975497530215</v>
+        <v>22.44951652178402</v>
       </c>
       <c r="C4">
-        <v>15.56113193522635</v>
+        <v>15.55792038455655</v>
       </c>
       <c r="D4">
-        <v>3.323234934972539</v>
+        <v>3.325778106163433</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.59926022893389</v>
+        <v>26.58270671951541</v>
       </c>
       <c r="G4">
-        <v>19.54453735476901</v>
+        <v>18.08921755816166</v>
       </c>
       <c r="H4">
-        <v>15.80960509650481</v>
+        <v>19.57581077029869</v>
       </c>
       <c r="I4">
-        <v>9.720914101726779</v>
+        <v>15.79890903123288</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.720447149285672</v>
       </c>
       <c r="K4">
-        <v>16.33871373081676</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>16.33900683439069</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97405775520635</v>
+        <v>21.9738631041664</v>
       </c>
       <c r="C5">
-        <v>15.23950470627399</v>
+        <v>15.23640658829932</v>
       </c>
       <c r="D5">
-        <v>3.293719007399059</v>
+        <v>3.296142675155525</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.23715315332479</v>
+        <v>26.22092422023281</v>
       </c>
       <c r="G5">
-        <v>19.33786043633866</v>
+        <v>17.80383035617668</v>
       </c>
       <c r="H5">
-        <v>15.75461764977085</v>
+        <v>19.36884095161722</v>
       </c>
       <c r="I5">
-        <v>9.567651675806287</v>
+        <v>15.74418366985521</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.567201228129278</v>
       </c>
       <c r="K5">
-        <v>15.97843632997022</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15.97874000992435</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.894176469487</v>
+        <v>21.89398905682341</v>
       </c>
       <c r="C6">
-        <v>15.18551623309492</v>
+        <v>15.18243710543343</v>
       </c>
       <c r="D6">
-        <v>3.288792736792517</v>
+        <v>3.291196319787312</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.1771760535978</v>
+        <v>26.16100133861947</v>
       </c>
       <c r="G6">
-        <v>19.30381523183183</v>
+        <v>17.7564901150909</v>
       </c>
       <c r="H6">
-        <v>15.7458882227678</v>
+        <v>19.33474793006255</v>
       </c>
       <c r="I6">
-        <v>9.542161915830015</v>
+        <v>15.73549783143669</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.541714221050416</v>
       </c>
       <c r="K6">
-        <v>15.91799508173896</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15.91830044889883</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.44339924600765</v>
+        <v>22.4431613857089</v>
       </c>
       <c r="C7">
-        <v>15.55683333996007</v>
+        <v>15.55362330889971</v>
       </c>
       <c r="D7">
-        <v>3.322838575514323</v>
+        <v>3.325380151286618</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.59436688822317</v>
+        <v>26.57781773450604</v>
       </c>
       <c r="G7">
-        <v>19.54173178668696</v>
+        <v>18.08536570937605</v>
       </c>
       <c r="H7">
-        <v>15.80883639001194</v>
+        <v>19.5730011973601</v>
       </c>
       <c r="I7">
-        <v>9.718849965239816</v>
+        <v>15.79814385427131</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.71838323462438</v>
       </c>
       <c r="K7">
-        <v>16.33389617189081</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>16.33418942281526</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73863330205421</v>
+        <v>24.73816620439293</v>
       </c>
       <c r="C8">
-        <v>17.11149853638894</v>
+        <v>17.10773121807892</v>
       </c>
       <c r="D8">
-        <v>3.46926323353443</v>
+        <v>3.472377985550306</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.45470627515489</v>
+        <v>28.43655157215437</v>
       </c>
       <c r="G8">
-        <v>20.63057011210396</v>
+        <v>19.54159786333916</v>
       </c>
       <c r="H8">
-        <v>16.14737083811518</v>
+        <v>20.66344211088401</v>
       </c>
       <c r="I8">
-        <v>10.50246084989578</v>
+        <v>16.135359300179</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.50200277899235</v>
       </c>
       <c r="K8">
-        <v>18.0808327009735</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>18.08106144102779</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.79194272153984</v>
+        <v>28.79098596038279</v>
       </c>
       <c r="C9">
-        <v>19.86763434991518</v>
+        <v>19.86282658029775</v>
       </c>
       <c r="D9">
-        <v>3.741532667370997</v>
+        <v>3.745638157065928</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.15549949246875</v>
+        <v>32.13435162852592</v>
       </c>
       <c r="G9">
-        <v>22.90045062825546</v>
+        <v>22.40257694767874</v>
       </c>
       <c r="H9">
-        <v>17.05144094564234</v>
+        <v>22.93686038680886</v>
       </c>
       <c r="I9">
-        <v>12.39892314421944</v>
+        <v>17.03693245606802</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.39832962257886</v>
       </c>
       <c r="K9">
-        <v>21.20394909079625</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>21.20399993543555</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.5114193346398</v>
+        <v>31.51006034919497</v>
       </c>
       <c r="C10">
-        <v>21.72412097733416</v>
+        <v>21.71856011203529</v>
       </c>
       <c r="D10">
-        <v>3.931818280407342</v>
+        <v>3.936567885496001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.90124723910452</v>
+        <v>34.87796879861162</v>
       </c>
       <c r="G10">
-        <v>24.64954491544606</v>
+        <v>24.55780478639093</v>
       </c>
       <c r="H10">
-        <v>17.88066007084729</v>
+        <v>24.68877271037313</v>
       </c>
       <c r="I10">
-        <v>13.70476812183448</v>
+        <v>17.86439903018621</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.70405486702971</v>
       </c>
       <c r="K10">
-        <v>23.32992097706906</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>23.32979576535091</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.69604108984628</v>
+        <v>32.69448502224998</v>
       </c>
       <c r="C11">
-        <v>22.53467470342516</v>
+        <v>22.52876853697762</v>
       </c>
       <c r="D11">
-        <v>4.016201227284975</v>
+        <v>4.021225417120768</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.25398751269423</v>
+        <v>36.22929175165691</v>
       </c>
       <c r="G11">
-        <v>25.53105593417148</v>
+        <v>25.57266279924943</v>
       </c>
       <c r="H11">
-        <v>18.29759576721927</v>
+        <v>25.50461403849212</v>
       </c>
       <c r="I11">
-        <v>14.28287470762286</v>
+        <v>18.28055821676452</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.2820999759304</v>
       </c>
       <c r="K11">
-        <v>24.26453032826971</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>24.26431111541369</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.13741604333112</v>
+        <v>33.13578281806573</v>
       </c>
       <c r="C12">
-        <v>22.83697102949034</v>
+        <v>22.83093321227152</v>
       </c>
       <c r="D12">
-        <v>4.047841252432927</v>
+        <v>4.052966763556409</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.78011122713363</v>
+        <v>36.755056779128</v>
       </c>
       <c r="G12">
-        <v>25.91408628482188</v>
+        <v>25.95629061754121</v>
       </c>
       <c r="H12">
-        <v>18.46152195803995</v>
+        <v>25.82641796174444</v>
       </c>
       <c r="I12">
-        <v>14.49979197462384</v>
+        <v>18.44419332791142</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.49899267072888</v>
       </c>
       <c r="K12">
-        <v>24.61415687858866</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>24.61389963544667</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.04267326153792</v>
+        <v>33.0410567748913</v>
       </c>
       <c r="C13">
-        <v>22.77206838746526</v>
+        <v>22.76605897216379</v>
       </c>
       <c r="D13">
-        <v>4.041040935139443</v>
+        <v>4.046144743175453</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.66684716160783</v>
+        <v>36.64187001756462</v>
       </c>
       <c r="G13">
-        <v>25.8316178627928</v>
+        <v>25.87369349964051</v>
       </c>
       <c r="H13">
-        <v>18.42594325554274</v>
+        <v>25.74916897320261</v>
       </c>
       <c r="I13">
-        <v>14.45315878689878</v>
+        <v>18.40867718541002</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>14.45236483779307</v>
       </c>
       <c r="K13">
-        <v>24.53904264322832</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>24.53879370678968</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.73249584485088</v>
+        <v>32.7309334832789</v>
       </c>
       <c r="C14">
-        <v>22.55963634859874</v>
+        <v>22.55371937221709</v>
       </c>
       <c r="D14">
-        <v>4.018810551997571</v>
+        <v>4.023843130886426</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.29729354101693</v>
+        <v>36.27256829326835</v>
       </c>
       <c r="G14">
-        <v>25.56257948129883</v>
+        <v>25.60423549100485</v>
       </c>
       <c r="H14">
-        <v>18.31095900004875</v>
+        <v>25.53021045543801</v>
       </c>
       <c r="I14">
-        <v>14.30075887112482</v>
+        <v>18.29389744374173</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14.2999821456288</v>
       </c>
       <c r="K14">
-        <v>24.29337789778603</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>24.29315560776491</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.54157404353813</v>
+        <v>32.54004448968036</v>
       </c>
       <c r="C15">
-        <v>22.4289187063637</v>
+        <v>22.42305821896959</v>
       </c>
       <c r="D15">
-        <v>4.005152966616571</v>
+        <v>4.010141569335961</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.07078767048557</v>
+        <v>36.04621657831851</v>
       </c>
       <c r="G15">
-        <v>25.39770855693509</v>
+        <v>25.43910759478389</v>
       </c>
       <c r="H15">
-        <v>18.24132488543925</v>
+        <v>25.39647836656987</v>
       </c>
       <c r="I15">
-        <v>14.20715852307322</v>
+        <v>18.2243889817972</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14.20639216967518</v>
       </c>
       <c r="K15">
-        <v>24.14235480086287</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>24.14214850105636</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.43297288449337</v>
+        <v>31.43162645440087</v>
       </c>
       <c r="C16">
-        <v>21.670485784406</v>
+        <v>21.66494738952017</v>
       </c>
       <c r="D16">
-        <v>3.926259659878618</v>
+        <v>3.93099094852367</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.81931481423139</v>
+        <v>34.79609937067439</v>
       </c>
       <c r="G16">
-        <v>24.59670803673475</v>
+        <v>24.49136735904129</v>
       </c>
       <c r="H16">
-        <v>17.85423925502929</v>
+        <v>24.63585005929093</v>
       </c>
       <c r="I16">
-        <v>13.66669096748021</v>
+        <v>17.83802938242904</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.66598156644521</v>
       </c>
       <c r="K16">
-        <v>23.2682196779609</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>23.26810029452637</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73966388797041</v>
+        <v>30.73842585809148</v>
       </c>
       <c r="C17">
-        <v>21.19667346878443</v>
+        <v>21.19133163789702</v>
       </c>
       <c r="D17">
-        <v>3.877301312708462</v>
+        <v>3.881870019448584</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.10209976408971</v>
+        <v>34.07943695408194</v>
       </c>
       <c r="G17">
-        <v>24.13578043502533</v>
+        <v>23.90838812737237</v>
       </c>
       <c r="H17">
-        <v>17.62717554131928</v>
+        <v>24.17417559657059</v>
       </c>
       <c r="I17">
-        <v>13.33124687122377</v>
+        <v>17.61141643784638</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.33057043069631</v>
       </c>
       <c r="K17">
-        <v>22.72389855463447</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>22.72382864811224</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.33592911752906</v>
+        <v>30.33475214323195</v>
       </c>
       <c r="C18">
-        <v>20.92093535915678</v>
+        <v>20.91570636523283</v>
       </c>
       <c r="D18">
-        <v>3.848936455694746</v>
+        <v>3.853409915116564</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.69022577363654</v>
+        <v>33.66788144319283</v>
       </c>
       <c r="G18">
-        <v>23.87242384436933</v>
+        <v>23.5793915376465</v>
       </c>
       <c r="H18">
-        <v>17.50029245099235</v>
+        <v>23.91039354315407</v>
       </c>
       <c r="I18">
-        <v>13.13678938095822</v>
+        <v>17.48479458357564</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.13613125904118</v>
       </c>
       <c r="K18">
-        <v>22.40773404925607</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>22.40769132186911</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.1983697996881</v>
+        <v>30.19721328936631</v>
       </c>
       <c r="C19">
-        <v>20.82701632668385</v>
+        <v>20.82182551347478</v>
       </c>
       <c r="D19">
-        <v>3.839297428292055</v>
+        <v>3.843738341094585</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.55087781700288</v>
+        <v>33.52864145151146</v>
       </c>
       <c r="G19">
-        <v>23.78355315332833</v>
+        <v>23.47272002956807</v>
       </c>
       <c r="H19">
-        <v>17.45796090583935</v>
+        <v>23.82137951336009</v>
       </c>
       <c r="I19">
-        <v>13.07068030284412</v>
+        <v>17.44255182273229</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.07002828111223</v>
       </c>
       <c r="K19">
-        <v>22.30014535588457</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>22.30011162301061</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81397906240643</v>
+        <v>30.81272963031826</v>
       </c>
       <c r="C20">
-        <v>21.24744256013126</v>
+        <v>21.242079830986</v>
       </c>
       <c r="D20">
-        <v>3.882534279240156</v>
+        <v>3.887120472701919</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.17837982730528</v>
+        <v>34.15565813094386</v>
       </c>
       <c r="G20">
-        <v>24.18466403836439</v>
+        <v>23.97051482524095</v>
       </c>
       <c r="H20">
-        <v>17.65095975666835</v>
+        <v>24.22313828115086</v>
       </c>
       <c r="I20">
-        <v>13.36711068671069</v>
+        <v>17.63515246398424</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.36643080551087</v>
       </c>
       <c r="K20">
-        <v>22.78215916931286</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>22.78208413107359</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.82379546217677</v>
+        <v>32.8222172757765</v>
       </c>
       <c r="C21">
-        <v>22.62215669892877</v>
+        <v>22.61621259962526</v>
       </c>
       <c r="D21">
-        <v>4.025348659231302</v>
+        <v>4.030402232011641</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.40586942741153</v>
+        <v>36.38107022258369</v>
       </c>
       <c r="G21">
-        <v>25.64161794442715</v>
+        <v>25.68339719610799</v>
       </c>
       <c r="H21">
-        <v>18.34456592562885</v>
+        <v>25.5944428864702</v>
       </c>
       <c r="I21">
-        <v>14.34557414903155</v>
+        <v>18.32744421940122</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.34479240221464</v>
       </c>
       <c r="K21">
-        <v>24.36564868491712</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>24.36541863819174</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.09545256454014</v>
+        <v>34.09364448562097</v>
       </c>
       <c r="C22">
-        <v>23.49368717169419</v>
+        <v>23.48735761473738</v>
       </c>
       <c r="D22">
-        <v>4.116858876404772</v>
+        <v>4.122202416988461</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.93548337319655</v>
+        <v>37.90963737226413</v>
       </c>
       <c r="G22">
-        <v>26.75562397748623</v>
+        <v>26.79914298931811</v>
       </c>
       <c r="H22">
-        <v>18.8332699659366</v>
+        <v>26.62650346985149</v>
       </c>
       <c r="I22">
-        <v>14.97357065229327</v>
+        <v>18.81530632917772</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>14.97271461418931</v>
       </c>
       <c r="K22">
-        <v>25.37576508550596</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>25.37541926836184</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.4204564964309</v>
+        <v>33.41877268128204</v>
       </c>
       <c r="C23">
-        <v>23.0309097397458</v>
+        <v>23.02478659988602</v>
       </c>
       <c r="D23">
-        <v>4.068184432683557</v>
+        <v>4.073374630285145</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.1195523174916</v>
+        <v>37.09426589864572</v>
       </c>
       <c r="G23">
-        <v>26.16126744451272</v>
+        <v>26.20385768384314</v>
       </c>
       <c r="H23">
-        <v>18.56908390680301</v>
+        <v>26.06114931047081</v>
       </c>
       <c r="I23">
-        <v>14.63934057564033</v>
+        <v>18.55156812633095</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>14.63852500662335</v>
       </c>
       <c r="K23">
-        <v>24.83877356074095</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>24.83849102549842</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.78039721331298</v>
+        <v>30.77915294006798</v>
       </c>
       <c r="C24">
-        <v>21.22450026610035</v>
+        <v>21.21914698555087</v>
       </c>
       <c r="D24">
-        <v>3.880169134146318</v>
+        <v>3.884747427395127</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.14389218884612</v>
+        <v>34.12119711255443</v>
       </c>
       <c r="G24">
-        <v>24.16255867630588</v>
+        <v>23.94242993047165</v>
       </c>
       <c r="H24">
-        <v>17.64019554089207</v>
+        <v>24.20099715424525</v>
       </c>
       <c r="I24">
-        <v>13.35090168013164</v>
+        <v>17.62441002806405</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.35022335640428</v>
       </c>
       <c r="K24">
-        <v>22.75582962522651</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>22.75575691094805</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74192959278026</v>
+        <v>27.74111130274474</v>
       </c>
       <c r="C25">
-        <v>19.15239607996001</v>
+        <v>19.14786620063183</v>
       </c>
       <c r="D25">
-        <v>3.669553437419456</v>
+        <v>3.673405494629658</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.14965770869518</v>
+        <v>31.12930507507905</v>
       </c>
       <c r="G25">
-        <v>22.27223518318023</v>
+        <v>21.62865667323442</v>
       </c>
       <c r="H25">
-        <v>16.77919127638953</v>
+        <v>22.30764793034954</v>
       </c>
       <c r="I25">
-        <v>11.90217680769285</v>
+        <v>16.7653454497685</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.90162273156585</v>
       </c>
       <c r="K25">
-        <v>20.38991936098418</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>20.39002512304879</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32921118872636</v>
+        <v>25.50173825705669</v>
       </c>
       <c r="C2">
-        <v>17.50869555182513</v>
+        <v>12.69371189282559</v>
       </c>
       <c r="D2">
-        <v>3.511225845848054</v>
+        <v>2.112195455573727</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.94418722883308</v>
+        <v>43.42658920311091</v>
       </c>
       <c r="G2">
-        <v>19.93682547881955</v>
+        <v>2.131835834837052</v>
       </c>
       <c r="H2">
-        <v>20.96817031939286</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.24226842019498</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.77510640680983</v>
+        <v>5.997760882665405</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.37359427557157</v>
       </c>
       <c r="L2">
-        <v>18.53335901232925</v>
+        <v>7.651598256642352</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>15.77843386778369</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.58071396945155</v>
+        <v>24.09216643739371</v>
       </c>
       <c r="C3">
-        <v>16.32336683621911</v>
+        <v>11.77314849567609</v>
       </c>
       <c r="D3">
-        <v>3.397441794533283</v>
+        <v>2.039147859854298</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.47617731784551</v>
+        <v>42.19712331148403</v>
       </c>
       <c r="G3">
-        <v>18.79112917342715</v>
+        <v>2.143634802416434</v>
       </c>
       <c r="H3">
-        <v>20.09470596736101</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.94992972811448</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.09469736470843</v>
+        <v>6.044426318334769</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.25047075440202</v>
       </c>
       <c r="L3">
-        <v>17.19822705690311</v>
+        <v>7.503706809368777</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>15.9605701272817</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.44951652178402</v>
+        <v>23.20719264383047</v>
       </c>
       <c r="C4">
-        <v>15.55792038455655</v>
+        <v>11.18027001880982</v>
       </c>
       <c r="D4">
-        <v>3.325778106163433</v>
+        <v>1.994546305534352</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.58270671951541</v>
+        <v>41.46573470448259</v>
       </c>
       <c r="G4">
-        <v>18.08921755816166</v>
+        <v>2.151038913044779</v>
       </c>
       <c r="H4">
-        <v>19.57581077029869</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.79890903123288</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.720447149285672</v>
+        <v>6.074421550921913</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.54580177865913</v>
       </c>
       <c r="L4">
-        <v>16.33900683439069</v>
+        <v>7.416435016602875</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>16.07722566813819</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.9738631041664</v>
+        <v>22.84198134408921</v>
       </c>
       <c r="C5">
-        <v>15.23640658829932</v>
+        <v>10.93158641451821</v>
       </c>
       <c r="D5">
-        <v>3.296142675155525</v>
+        <v>1.976408804653525</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.22092422023281</v>
+        <v>41.17364014869253</v>
       </c>
       <c r="G5">
-        <v>17.80383035617668</v>
+        <v>2.154099267924394</v>
       </c>
       <c r="H5">
-        <v>19.36884095161722</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.74418366985521</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.567201228129278</v>
+        <v>6.086984230821114</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.25511330601785</v>
       </c>
       <c r="L5">
-        <v>15.97874000992435</v>
+        <v>7.381765294276624</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>16.12594610928296</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.89398905682341</v>
+        <v>22.78107307221514</v>
       </c>
       <c r="C6">
-        <v>15.18243710543343</v>
+        <v>10.88986145878649</v>
       </c>
       <c r="D6">
-        <v>3.291196319787312</v>
+        <v>1.973398707877575</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.16100133861947</v>
+        <v>41.12549895725321</v>
       </c>
       <c r="G6">
-        <v>17.7564901150909</v>
+        <v>2.154610125405696</v>
       </c>
       <c r="H6">
-        <v>19.33474793006255</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.73549783143669</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.541714221050416</v>
+        <v>6.089090804991695</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.20664047077079</v>
       </c>
       <c r="L6">
-        <v>15.91830044889883</v>
+        <v>7.376062588750018</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>16.13410671446285</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.4431613857089</v>
+        <v>23.20228531515922</v>
       </c>
       <c r="C7">
-        <v>15.55362330889971</v>
+        <v>11.17694501757052</v>
       </c>
       <c r="D7">
-        <v>3.325380151286618</v>
+        <v>1.994301573823427</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.57781773450604</v>
+        <v>41.46177125274802</v>
       </c>
       <c r="G7">
-        <v>18.08536570937605</v>
+        <v>2.15108000766036</v>
       </c>
       <c r="H7">
-        <v>19.5730011973601</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.79814385427131</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.71838323462438</v>
+        <v>6.074589599072552</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.5418953507739</v>
       </c>
       <c r="L7">
-        <v>16.33418942281526</v>
+        <v>7.415963820320293</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>16.0778779783888</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73816620439293</v>
+        <v>25.01992946470295</v>
       </c>
       <c r="C8">
-        <v>17.10773121807892</v>
+        <v>12.38195977018918</v>
       </c>
       <c r="D8">
-        <v>3.472377985550306</v>
+        <v>2.086940859825677</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.43655157215437</v>
+        <v>42.99780971542433</v>
       </c>
       <c r="G8">
-        <v>19.54159786333916</v>
+        <v>2.135872908182628</v>
       </c>
       <c r="H8">
-        <v>20.66344211088401</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.135359300179</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10.50200277899235</v>
+        <v>6.01357358247758</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.98960091866734</v>
       </c>
       <c r="L8">
-        <v>18.08106144102779</v>
+        <v>7.599874866254604</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>15.84021350715217</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.79098596038279</v>
+        <v>28.42013317401419</v>
       </c>
       <c r="C9">
-        <v>19.86282658029775</v>
+        <v>14.53195976578191</v>
       </c>
       <c r="D9">
-        <v>3.745638157065928</v>
+        <v>2.271887079708485</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.13435162852592</v>
+        <v>46.19604976919231</v>
       </c>
       <c r="G9">
-        <v>22.40257694767874</v>
+        <v>2.107166938332076</v>
       </c>
       <c r="H9">
-        <v>22.93686038680886</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.03693245606802</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.39832962257886</v>
+        <v>5.904491462246785</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.70141100800419</v>
       </c>
       <c r="L9">
-        <v>21.20399993543555</v>
+        <v>7.988411369913874</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>15.41408508883238</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.51006034919497</v>
+        <v>30.81181685020654</v>
       </c>
       <c r="C10">
-        <v>21.71856011203529</v>
+        <v>15.99150709881955</v>
       </c>
       <c r="D10">
-        <v>3.936567885496001</v>
+        <v>2.411889423680942</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.87796879861162</v>
+        <v>48.6618929847621</v>
       </c>
       <c r="G10">
-        <v>24.55780478639093</v>
+        <v>2.08652133562469</v>
       </c>
       <c r="H10">
-        <v>24.68877271037313</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17.86439903018621</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.70405486702971</v>
+        <v>5.830679436621978</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.64875833003078</v>
       </c>
       <c r="L10">
-        <v>23.32979576535091</v>
+        <v>8.290921544425156</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>15.12820457144202</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.69448502224998</v>
+        <v>31.8771471687539</v>
       </c>
       <c r="C11">
-        <v>22.52876853697762</v>
+        <v>16.63191654086621</v>
       </c>
       <c r="D11">
-        <v>4.021225417120768</v>
+        <v>2.477052794634162</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.22929175165691</v>
+        <v>49.81067589302125</v>
       </c>
       <c r="G11">
-        <v>25.57266279924943</v>
+        <v>2.077164962135048</v>
       </c>
       <c r="H11">
-        <v>25.50461403849212</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>18.28055821676452</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14.2820999759304</v>
+        <v>5.798451267569691</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.61966330329822</v>
       </c>
       <c r="L11">
-        <v>24.26431111541369</v>
+        <v>8.432357900920492</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>15.00488622087446</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.13578281806573</v>
+        <v>32.2774436246444</v>
       </c>
       <c r="C12">
-        <v>22.83093321227152</v>
+        <v>16.87127430090479</v>
       </c>
       <c r="D12">
-        <v>4.052966763556409</v>
+        <v>2.501998587513953</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.755056779128</v>
+        <v>50.24983398765733</v>
       </c>
       <c r="G12">
-        <v>25.95629061754121</v>
+        <v>2.073621179548119</v>
       </c>
       <c r="H12">
-        <v>25.82641796174444</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.44419332791142</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>14.49899267072888</v>
+        <v>5.786439520212184</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.98269094844376</v>
       </c>
       <c r="L12">
-        <v>24.61389963544667</v>
+        <v>8.486484390324108</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>14.95924492304758</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.0410567748913</v>
+        <v>32.19136833040559</v>
       </c>
       <c r="C13">
-        <v>22.76605897216379</v>
+        <v>16.8198604212857</v>
       </c>
       <c r="D13">
-        <v>4.046144743175453</v>
+        <v>2.496613041935837</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.64187001756462</v>
+        <v>50.15506430865332</v>
       </c>
       <c r="G13">
-        <v>25.87369349964051</v>
+        <v>2.074384530224644</v>
       </c>
       <c r="H13">
-        <v>25.74916897320261</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.40867718541002</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>14.45236483779307</v>
+        <v>5.789017935709775</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.90470744887797</v>
       </c>
       <c r="L13">
-        <v>24.53879370678968</v>
+        <v>8.474801651229505</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>14.96902599110542</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.7309334832789</v>
+        <v>31.9101412586665</v>
       </c>
       <c r="C14">
-        <v>22.55371937221709</v>
+        <v>16.65167035464388</v>
       </c>
       <c r="D14">
-        <v>4.023843130886426</v>
+        <v>2.479099327551419</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.27256829326835</v>
+        <v>49.84672095966347</v>
       </c>
       <c r="G14">
-        <v>25.60423549100485</v>
+        <v>2.076873463789447</v>
       </c>
       <c r="H14">
-        <v>25.53021045543801</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.29389744374173</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14.2999821456288</v>
+        <v>5.797459208080286</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.64962085521493</v>
       </c>
       <c r="L14">
-        <v>24.29315560776491</v>
+        <v>8.436799407930813</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>15.00110953412388</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.54004448968036</v>
+        <v>31.73748063800425</v>
       </c>
       <c r="C15">
-        <v>22.42305821896959</v>
+        <v>16.54824615408517</v>
       </c>
       <c r="D15">
-        <v>4.010141569335961</v>
+        <v>2.468408686815462</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.04621657831851</v>
+        <v>49.65839985498059</v>
       </c>
       <c r="G15">
-        <v>25.43910759478389</v>
+        <v>2.078397726388728</v>
       </c>
       <c r="H15">
-        <v>25.39647836656987</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.2243889817972</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>14.20639216967518</v>
+        <v>5.802654733475058</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.49277886672872</v>
       </c>
       <c r="L15">
-        <v>24.14214850105636</v>
+        <v>8.4135965469087</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>15.02090218006192</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.43162645440087</v>
+        <v>30.74174886104597</v>
       </c>
       <c r="C16">
-        <v>21.66494738952017</v>
+        <v>15.94920040230034</v>
       </c>
       <c r="D16">
-        <v>3.93099094852367</v>
+        <v>2.407665252909933</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.79609937067439</v>
+        <v>48.58738075350688</v>
       </c>
       <c r="G16">
-        <v>24.49136735904129</v>
+        <v>2.087133029586083</v>
       </c>
       <c r="H16">
-        <v>24.63585005929093</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.83802938242904</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.66598156644521</v>
+        <v>5.832812631149979</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.58464252950637</v>
       </c>
       <c r="L16">
-        <v>23.26810029452637</v>
+        <v>8.281756594056334</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>15.13640635352175</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73842585809148</v>
+        <v>30.12516722115903</v>
       </c>
       <c r="C17">
-        <v>21.19133163789702</v>
+        <v>15.57583225908802</v>
       </c>
       <c r="D17">
-        <v>3.881870019448584</v>
+        <v>2.370817200214759</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.07943695408194</v>
+        <v>47.93742145138976</v>
       </c>
       <c r="G17">
-        <v>23.90838812737237</v>
+        <v>2.09249702650911</v>
       </c>
       <c r="H17">
-        <v>24.17417559657059</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.61141643784638</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13.33057043069631</v>
+        <v>5.85165791275323</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.06277762886726</v>
       </c>
       <c r="L17">
-        <v>22.72382864811224</v>
+        <v>8.201866116412845</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>15.20904614713086</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.33475214323195</v>
+        <v>29.76837960863568</v>
       </c>
       <c r="C18">
-        <v>20.91570636523283</v>
+        <v>15.35884886292371</v>
       </c>
       <c r="D18">
-        <v>3.853409915116564</v>
+        <v>2.349758102644512</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.66788144319283</v>
+        <v>47.56610862285126</v>
       </c>
       <c r="G18">
-        <v>23.5793915376465</v>
+        <v>2.095585980385267</v>
       </c>
       <c r="H18">
-        <v>23.91039354315407</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.48479458357564</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.13613125904118</v>
+        <v>5.862624319319216</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.77782589464964</v>
       </c>
       <c r="L18">
-        <v>22.40769132186911</v>
+        <v>8.156273499247789</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>15.25145384751186</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.19721328936631</v>
+        <v>29.64720604453743</v>
       </c>
       <c r="C19">
-        <v>20.82182551347478</v>
+        <v>15.28499200976892</v>
       </c>
       <c r="D19">
-        <v>3.843738341094585</v>
+        <v>2.342649421113855</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.52864145151146</v>
+        <v>47.44081645354924</v>
       </c>
       <c r="G19">
-        <v>23.47272002956807</v>
+        <v>2.096632651582503</v>
       </c>
       <c r="H19">
-        <v>23.82137951336009</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17.44255182273229</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.07002828111223</v>
+        <v>5.866359236946172</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.68105881501853</v>
       </c>
       <c r="L19">
-        <v>22.30011162301061</v>
+        <v>8.140897757739568</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>15.26591765639547</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81272963031826</v>
+        <v>30.19102478329315</v>
       </c>
       <c r="C20">
-        <v>21.242079830986</v>
+        <v>15.61580732565171</v>
       </c>
       <c r="D20">
-        <v>3.887120472701919</v>
+        <v>2.374725385916505</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.15565813094386</v>
+        <v>48.0063477570443</v>
       </c>
       <c r="G20">
-        <v>23.97051482524095</v>
+        <v>2.091925674051152</v>
       </c>
       <c r="H20">
-        <v>24.22313828115086</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.63515246398424</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.36643080551087</v>
+        <v>5.849638658287073</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.11537983285668</v>
       </c>
       <c r="L20">
-        <v>22.78208413107359</v>
+        <v>8.210333413927502</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>15.20124801351034</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.8222172757765</v>
+        <v>31.99282765224706</v>
       </c>
       <c r="C21">
-        <v>22.61621259962526</v>
+        <v>16.70115536175578</v>
       </c>
       <c r="D21">
-        <v>4.030402232011641</v>
+        <v>2.484235699395607</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.38107022258369</v>
+        <v>49.93717406322371</v>
       </c>
       <c r="G21">
-        <v>25.68339719610799</v>
+        <v>2.076142473789563</v>
       </c>
       <c r="H21">
-        <v>25.5944428864702</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>18.32744421940122</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>14.34479240221464</v>
+        <v>5.79497459421663</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.72466920001168</v>
       </c>
       <c r="L21">
-        <v>24.36541863819174</v>
+        <v>8.447945993739046</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>14.99165634540325</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.09364448562097</v>
+        <v>33.15234366307722</v>
       </c>
       <c r="C22">
-        <v>23.48735761473738</v>
+        <v>17.3922561989512</v>
       </c>
       <c r="D22">
-        <v>4.122202416988461</v>
+        <v>2.557413880574283</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.90963737226413</v>
+        <v>51.22339756795977</v>
       </c>
       <c r="G22">
-        <v>26.79914298931811</v>
+        <v>2.065819691822038</v>
       </c>
       <c r="H22">
-        <v>26.62650346985149</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.81530632917772</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>14.97271461418931</v>
+        <v>5.760368952350668</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.77303953082972</v>
       </c>
       <c r="L22">
-        <v>25.37541926836184</v>
+        <v>8.606563515887524</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>14.86088987077016</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.41877268128204</v>
+        <v>32.53507345947373</v>
       </c>
       <c r="C23">
-        <v>23.02478659988602</v>
+        <v>17.02498562529291</v>
       </c>
       <c r="D23">
-        <v>4.073374630285145</v>
+        <v>2.518188631570417</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.09426589864572</v>
+        <v>50.53458146165278</v>
       </c>
       <c r="G23">
-        <v>26.20385768384314</v>
+        <v>2.071331986262888</v>
       </c>
       <c r="H23">
-        <v>26.06114931047081</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.55156812633095</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>14.63852500662335</v>
+        <v>5.778736649562362</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.21585291960618</v>
       </c>
       <c r="L23">
-        <v>24.83849102549842</v>
+        <v>8.521593745749417</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>14.93007968882987</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.77915294006798</v>
+        <v>30.1612577733347</v>
       </c>
       <c r="C24">
-        <v>21.21914698555087</v>
+        <v>15.59774186990679</v>
       </c>
       <c r="D24">
-        <v>3.884747427395127</v>
+        <v>2.37295810897433</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.12119711255443</v>
+        <v>47.97517884874002</v>
       </c>
       <c r="G24">
-        <v>23.94242993047165</v>
+        <v>2.092183966119073</v>
       </c>
       <c r="H24">
-        <v>24.20099715424525</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.62441002806405</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>13.35022335640428</v>
+        <v>5.850551151946213</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.09160395118152</v>
       </c>
       <c r="L24">
-        <v>22.75575691094805</v>
+        <v>8.206504298752561</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>15.20477154372596</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74111130274474</v>
+        <v>27.5188410154929</v>
       </c>
       <c r="C25">
-        <v>19.14786620063183</v>
+        <v>13.97218251172205</v>
       </c>
       <c r="D25">
-        <v>3.673405494629658</v>
+        <v>2.221303056363107</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.12930507507905</v>
+        <v>45.31082484055513</v>
       </c>
       <c r="G25">
-        <v>21.62865667323442</v>
+        <v>2.114835945039532</v>
       </c>
       <c r="H25">
-        <v>22.30764793034954</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.7653454497685</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>11.90162273156585</v>
+        <v>5.932881249191469</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.98217786809725</v>
       </c>
       <c r="L25">
-        <v>20.39002512304879</v>
+        <v>7.880325160842543</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>15.52482899083575</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.50173825705669</v>
+        <v>21.03406668382571</v>
       </c>
       <c r="C2">
-        <v>12.69371189282559</v>
+        <v>14.59815978337012</v>
       </c>
       <c r="D2">
-        <v>2.112195455573727</v>
+        <v>8.179954241648428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>43.42658920311091</v>
+        <v>18.43580448520324</v>
       </c>
       <c r="G2">
-        <v>2.131835834837052</v>
+        <v>17.92569362246113</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.618373631744786</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.997760882665405</v>
+        <v>6.438010028928938</v>
       </c>
       <c r="K2">
-        <v>20.37359427557157</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.651598256642352</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.18883094426885</v>
       </c>
       <c r="N2">
-        <v>15.77843386778369</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.98001430731615</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.09216643739371</v>
+        <v>19.68523784994683</v>
       </c>
       <c r="C3">
-        <v>11.77314849567609</v>
+        <v>13.78740426378156</v>
       </c>
       <c r="D3">
-        <v>2.039147859854298</v>
+        <v>7.92437920007685</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.19712331148403</v>
+        <v>18.23167531415009</v>
       </c>
       <c r="G3">
-        <v>2.143634802416434</v>
+        <v>17.621377515684</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.713784618348024</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.044426318334769</v>
+        <v>6.477245183482835</v>
       </c>
       <c r="K3">
-        <v>19.25047075440202</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.503706809368777</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.27181208851971</v>
       </c>
       <c r="N3">
-        <v>15.9605701272817</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.0424979491523</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.20719264383047</v>
+        <v>18.80894281865716</v>
       </c>
       <c r="C4">
-        <v>11.18027001880982</v>
+        <v>13.26523472482712</v>
       </c>
       <c r="D4">
-        <v>1.994546305534352</v>
+        <v>7.76699760197666</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.46573470448259</v>
+        <v>18.12957002270015</v>
       </c>
       <c r="G4">
-        <v>2.151038913044779</v>
+        <v>17.46957913107594</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.779288056440234</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.074421550921913</v>
+        <v>6.505606058274715</v>
       </c>
       <c r="K4">
-        <v>18.54580177865913</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.416435016602875</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.68318979366214</v>
       </c>
       <c r="N4">
-        <v>16.07722566813819</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.09788576380077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.84198134408921</v>
+        <v>18.43973750242401</v>
       </c>
       <c r="C5">
-        <v>10.93158641451821</v>
+        <v>13.04644132996446</v>
       </c>
       <c r="D5">
-        <v>1.976408804653525</v>
+        <v>7.702837488230046</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.17364014869253</v>
+        <v>18.09364901736196</v>
       </c>
       <c r="G5">
-        <v>2.154099267924394</v>
+        <v>17.41630620147965</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.807643586150031</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.086984230821114</v>
+        <v>6.51819940637813</v>
       </c>
       <c r="K5">
-        <v>18.25511330601785</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.381765294276624</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.43706583953468</v>
       </c>
       <c r="N5">
-        <v>16.12594610928296</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.12451248483705</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.78107307221514</v>
+        <v>18.37769992070396</v>
       </c>
       <c r="C6">
-        <v>10.88986145878649</v>
+        <v>13.00975229802931</v>
       </c>
       <c r="D6">
-        <v>1.973398707877575</v>
+        <v>7.692184902902345</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.12549895725321</v>
+        <v>18.08802295773146</v>
       </c>
       <c r="G6">
-        <v>2.154610125405696</v>
+        <v>17.40797104916948</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.81245021742385</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.089090804991695</v>
+        <v>6.52035202187696</v>
       </c>
       <c r="K6">
-        <v>18.20664047077079</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.376062588750018</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.39582522379556</v>
       </c>
       <c r="N6">
-        <v>16.13410671446285</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.12917226040691</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.20228531515922</v>
+        <v>18.80401261539994</v>
       </c>
       <c r="C7">
-        <v>11.17694501757052</v>
+        <v>13.26230813287207</v>
       </c>
       <c r="D7">
-        <v>1.994301573823427</v>
+        <v>7.766132298936525</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.46177125274802</v>
+        <v>18.12906276960906</v>
       </c>
       <c r="G7">
-        <v>2.15108000766036</v>
+        <v>17.46882625311717</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.779663837616231</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.074589599072552</v>
+        <v>6.505771750402435</v>
       </c>
       <c r="K7">
-        <v>18.5418953507739</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.415963820320293</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.67989554849526</v>
       </c>
       <c r="N7">
-        <v>16.0778779783888</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.09822873492909</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.01992946470295</v>
+        <v>20.57896469232898</v>
       </c>
       <c r="C8">
-        <v>12.38195977018918</v>
+        <v>14.32373131628562</v>
       </c>
       <c r="D8">
-        <v>2.086940859825677</v>
+        <v>8.091978645238603</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.99780971542433</v>
+        <v>18.3605136625337</v>
       </c>
       <c r="G8">
-        <v>2.135872908182628</v>
+        <v>17.81337139079961</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.649786536562223</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.01357358247758</v>
+        <v>6.450628844620216</v>
       </c>
       <c r="K8">
-        <v>19.98960091866734</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.599874866254604</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.87804174628432</v>
       </c>
       <c r="N8">
-        <v>15.84021350715217</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.99789001485533</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.42013317401419</v>
+        <v>23.67909825495565</v>
       </c>
       <c r="C9">
-        <v>14.53195976578191</v>
+        <v>16.20795972070577</v>
       </c>
       <c r="D9">
-        <v>2.271887079708485</v>
+        <v>8.723733213891887</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.19604976919231</v>
+        <v>19.00439358634243</v>
       </c>
       <c r="G9">
-        <v>2.107166938332076</v>
+        <v>18.77421864561603</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.453762811898393</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.904491462246785</v>
+        <v>6.378143154655609</v>
       </c>
       <c r="K9">
-        <v>22.70141100800419</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.988411369913874</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.12030815017626</v>
       </c>
       <c r="N9">
-        <v>15.41408508883238</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.94623949075368</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.81181685020654</v>
+        <v>25.72719720141258</v>
       </c>
       <c r="C10">
-        <v>15.99150709881955</v>
+        <v>17.46846226103781</v>
       </c>
       <c r="D10">
-        <v>2.411889423680942</v>
+        <v>9.179168568415907</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.6618929847621</v>
+        <v>19.59937031073965</v>
       </c>
       <c r="G10">
-        <v>2.08652133562469</v>
+        <v>19.65948282468574</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.351060994582001</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.830679436621978</v>
+        <v>6.349158389530735</v>
       </c>
       <c r="K10">
-        <v>24.64875833003078</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.290921544425156</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.70557082811597</v>
       </c>
       <c r="N10">
-        <v>15.12820457144202</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.01027306745909</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.8771471687539</v>
+        <v>26.60977419269641</v>
       </c>
       <c r="C11">
-        <v>16.63191654086621</v>
+        <v>18.01462055509433</v>
       </c>
       <c r="D11">
-        <v>2.477052794634162</v>
+        <v>9.383709340931778</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.81067589302125</v>
+        <v>19.89736360195453</v>
       </c>
       <c r="G11">
-        <v>2.077164962135048</v>
+        <v>20.10127679947848</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.314627234745323</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.798451267569691</v>
+        <v>6.341822731173748</v>
       </c>
       <c r="K11">
-        <v>25.61966330329822</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.432357900920492</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.38923805026832</v>
       </c>
       <c r="N11">
-        <v>15.00488622087446</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>12.06431601751518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.2774436246444</v>
+        <v>26.93698433662037</v>
       </c>
       <c r="C12">
-        <v>16.87127430090479</v>
+        <v>18.21750368921544</v>
       </c>
       <c r="D12">
-        <v>2.501998587513953</v>
+        <v>9.460731610435843</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.24983398765733</v>
+        <v>20.01417914879953</v>
       </c>
       <c r="G12">
-        <v>2.073621179548119</v>
+        <v>20.27414826016467</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.302426677437356</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.786439520212184</v>
+        <v>6.339936253912029</v>
       </c>
       <c r="K12">
-        <v>25.98269094844376</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.486484390324108</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.64279424275258</v>
       </c>
       <c r="N12">
-        <v>14.95924492304758</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>12.08857679563405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.19136833040559</v>
+        <v>26.86682420434944</v>
       </c>
       <c r="C13">
-        <v>16.8198604212857</v>
+        <v>18.17398432977444</v>
       </c>
       <c r="D13">
-        <v>2.496613041935837</v>
+        <v>9.44416350375511</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.15506430865332</v>
+        <v>19.98884367846726</v>
       </c>
       <c r="G13">
-        <v>2.074384530224644</v>
+        <v>20.23667041700519</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.304981371619842</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.789017935709775</v>
+        <v>6.34030207782602</v>
       </c>
       <c r="K13">
-        <v>25.90470744887797</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.474801651229505</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.58842267374399</v>
       </c>
       <c r="N13">
-        <v>14.96902599110542</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>12.08317972394934</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.9101412586665</v>
+        <v>26.63683394698391</v>
       </c>
       <c r="C14">
-        <v>16.65167035464388</v>
+        <v>18.03139079118445</v>
       </c>
       <c r="D14">
-        <v>2.479099327551419</v>
+        <v>9.390054962239665</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.84672095966347</v>
+        <v>19.90689430059391</v>
       </c>
       <c r="G14">
-        <v>2.076873463789447</v>
+        <v>20.11538769167345</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.313590807588249</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.797459208080286</v>
+        <v>6.341649371088372</v>
       </c>
       <c r="K14">
-        <v>25.64962085521493</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.436799407930813</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.41020483511871</v>
       </c>
       <c r="N14">
-        <v>15.00110953412388</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12.06623471590191</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.73748063800425</v>
+        <v>26.49504820487199</v>
       </c>
       <c r="C15">
-        <v>16.54824615408517</v>
+        <v>17.94353537258203</v>
       </c>
       <c r="D15">
-        <v>2.468408686815462</v>
+        <v>9.356854096832484</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.65839985498059</v>
+        <v>19.85721617091124</v>
       </c>
       <c r="G15">
-        <v>2.078397726388728</v>
+        <v>20.04182255036325</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.319075771954799</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.802654733475058</v>
+        <v>6.342592231351789</v>
       </c>
       <c r="K15">
-        <v>25.49277886672872</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.4135965469087</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.30034836599676</v>
       </c>
       <c r="N15">
-        <v>15.02090218006192</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.05635585445788</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.74174886104597</v>
+        <v>25.66853540957428</v>
       </c>
       <c r="C16">
-        <v>15.94920040230034</v>
+        <v>17.43221948403953</v>
       </c>
       <c r="D16">
-        <v>2.407665252909933</v>
+        <v>9.165743496050178</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.58738075350688</v>
+        <v>19.58044967903107</v>
       </c>
       <c r="G16">
-        <v>2.087133029586083</v>
+        <v>19.63139366434079</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.35365887097017</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.832812631149979</v>
+        <v>6.349759752781465</v>
       </c>
       <c r="K16">
-        <v>24.58464252950637</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.281756594056334</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.66014207625649</v>
       </c>
       <c r="N16">
-        <v>15.13640635352175</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.0072610867112</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.12516722115903</v>
+        <v>25.1489580998102</v>
       </c>
       <c r="C17">
-        <v>15.57583225908802</v>
+        <v>17.11154846639053</v>
       </c>
       <c r="D17">
-        <v>2.370817200214759</v>
+        <v>9.047786870642359</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.93742145138976</v>
+        <v>19.41769798554276</v>
       </c>
       <c r="G17">
-        <v>2.09249702650911</v>
+        <v>19.38959508124837</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.377590289340404</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.85165791275323</v>
+        <v>6.355690184828902</v>
       </c>
       <c r="K17">
-        <v>24.06277762886726</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.201866116412845</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.25783561779791</v>
       </c>
       <c r="N17">
-        <v>15.20904614713086</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>11.98367975841541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.76837960863568</v>
+        <v>24.8454841979091</v>
       </c>
       <c r="C18">
-        <v>15.35884886292371</v>
+        <v>16.9245421583991</v>
       </c>
       <c r="D18">
-        <v>2.349758102644512</v>
+        <v>8.979695621680062</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.56610862285126</v>
+        <v>19.32665911186747</v>
       </c>
       <c r="G18">
-        <v>2.095585980385267</v>
+        <v>19.25420255287443</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.39231577284775</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.862624319319216</v>
+        <v>6.359648694824667</v>
       </c>
       <c r="K18">
-        <v>23.77782589464964</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.156273499247789</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.02290851307193</v>
       </c>
       <c r="N18">
-        <v>15.25145384751186</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11.972449351828</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.64720604453743</v>
+        <v>24.74193677115663</v>
       </c>
       <c r="C19">
-        <v>15.28499200976892</v>
+        <v>16.86078523262245</v>
       </c>
       <c r="D19">
-        <v>2.342649421113855</v>
+        <v>8.956600650862045</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.44081645354924</v>
+        <v>19.29627507521813</v>
       </c>
       <c r="G19">
-        <v>2.096632651582503</v>
+        <v>19.20899458197206</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.397463113038608</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.866359236946172</v>
+        <v>6.361081508505757</v>
       </c>
       <c r="K19">
-        <v>23.68105881501853</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.140897757739568</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.94275814946152</v>
       </c>
       <c r="N19">
-        <v>15.26591765639547</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.96904091030133</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.19102478329315</v>
+        <v>25.20474643040839</v>
       </c>
       <c r="C20">
-        <v>15.61580732565171</v>
+        <v>17.14595005133675</v>
       </c>
       <c r="D20">
-        <v>2.374725385916505</v>
+        <v>9.060369397919663</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.0063477570443</v>
+        <v>19.43475668374489</v>
       </c>
       <c r="G20">
-        <v>2.091925674051152</v>
+        <v>19.41495396174685</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.374942484784111</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.849638658287073</v>
+        <v>6.355001859915467</v>
       </c>
       <c r="K20">
-        <v>24.11537983285668</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.210333413927502</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19.30102689165659</v>
       </c>
       <c r="N20">
-        <v>15.20124801351034</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>11.98594699373826</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.99282765224706</v>
+        <v>26.70457720297567</v>
       </c>
       <c r="C21">
-        <v>16.70115536175578</v>
+        <v>18.0733808413814</v>
       </c>
       <c r="D21">
-        <v>2.484235699395607</v>
+        <v>9.405960086429355</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.93717406322371</v>
+        <v>19.93085676748743</v>
       </c>
       <c r="G21">
-        <v>2.076142473789563</v>
+        <v>20.15086059831142</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.311017727345207</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.79497459421663</v>
+        <v>6.341229037688604</v>
       </c>
       <c r="K21">
-        <v>25.72466920001168</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.447945993739046</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>20.46269602880594</v>
       </c>
       <c r="N21">
-        <v>14.99165634540325</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>12.07110722128925</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.15234366307722</v>
+        <v>27.6440186306931</v>
       </c>
       <c r="C22">
-        <v>17.3922561989512</v>
+        <v>18.65657383104245</v>
       </c>
       <c r="D22">
-        <v>2.557413880574283</v>
+        <v>9.629281312850459</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.22339756795977</v>
+        <v>20.27824781633545</v>
       </c>
       <c r="G22">
-        <v>2.065819691822038</v>
+        <v>20.66426828239557</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.278601016470637</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.760368952350668</v>
+        <v>6.33744789312586</v>
       </c>
       <c r="K22">
-        <v>26.77303953082972</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>8.606563515887524</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.19085342657065</v>
       </c>
       <c r="N22">
-        <v>14.86088987077016</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>12.14897887168526</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.53507345947373</v>
+        <v>27.14633157183602</v>
       </c>
       <c r="C23">
-        <v>17.02498562529291</v>
+        <v>18.34741389490891</v>
       </c>
       <c r="D23">
-        <v>2.518188631570417</v>
+        <v>9.510338751870476</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.53458146165278</v>
+        <v>20.09070951919158</v>
       </c>
       <c r="G23">
-        <v>2.071331986262888</v>
+        <v>20.38730524993921</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.295005635993047</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.778736649562362</v>
+        <v>6.338971262751744</v>
       </c>
       <c r="K23">
-        <v>26.21585291960618</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.521593745749417</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>20.80504479275948</v>
       </c>
       <c r="N23">
-        <v>14.93007968882987</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>12.10531770103387</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.1612577733347</v>
+        <v>25.17953936312994</v>
       </c>
       <c r="C24">
-        <v>15.59774186990679</v>
+        <v>17.13040534216099</v>
       </c>
       <c r="D24">
-        <v>2.37295810897433</v>
+        <v>9.054681694160655</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.97517884874002</v>
+        <v>19.42703657152766</v>
       </c>
       <c r="G24">
-        <v>2.092183966119073</v>
+        <v>19.40347793091074</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.376136554051067</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.850551151946213</v>
+        <v>6.355311345296561</v>
       </c>
       <c r="K24">
-        <v>24.09160395118152</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.206504298752561</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.28151144547625</v>
       </c>
       <c r="N24">
-        <v>15.20477154372596</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11.98491474548553</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.5188410154929</v>
+        <v>22.88095396953227</v>
       </c>
       <c r="C25">
-        <v>13.97218251172205</v>
+        <v>15.71978894114044</v>
       </c>
       <c r="D25">
-        <v>2.221303056363107</v>
+        <v>8.554074111641745</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.31082484055513</v>
+        <v>18.80914973285135</v>
       </c>
       <c r="G25">
-        <v>2.114835945039532</v>
+        <v>18.48297810253605</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.49996125733436</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.932881249191469</v>
+        <v>6.393680412931267</v>
       </c>
       <c r="K25">
-        <v>21.98217786809725</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.880325160842543</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.50294485981034</v>
       </c>
       <c r="N25">
-        <v>15.52482899083575</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.94326555338574</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.03406668382571</v>
+        <v>13.22299422634783</v>
       </c>
       <c r="C2">
-        <v>14.59815978337012</v>
+        <v>8.996801150313807</v>
       </c>
       <c r="D2">
-        <v>8.179954241648428</v>
+        <v>11.51655450499791</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.43580448520324</v>
+        <v>27.68518895197605</v>
       </c>
       <c r="G2">
-        <v>17.92569362246113</v>
+        <v>24.4950714765633</v>
       </c>
       <c r="H2">
-        <v>7.618373631744786</v>
+        <v>13.2709238882142</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.438010028928938</v>
+        <v>11.18997596994233</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.18883094426885</v>
+        <v>16.98254418702167</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.98001430731615</v>
+        <v>19.62102681839587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68523784994683</v>
+        <v>12.56644524088066</v>
       </c>
       <c r="C3">
-        <v>13.78740426378156</v>
+        <v>8.556860847598086</v>
       </c>
       <c r="D3">
-        <v>7.92437920007685</v>
+        <v>11.49442813186268</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.23167531415009</v>
+        <v>27.78898571170069</v>
       </c>
       <c r="G3">
-        <v>17.621377515684</v>
+        <v>24.61942599621873</v>
       </c>
       <c r="H3">
-        <v>7.713784618348024</v>
+        <v>13.33361956417977</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.477245183482835</v>
+        <v>11.22772105426296</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.27181208851971</v>
+        <v>16.74929109801742</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.0424979491523</v>
+        <v>19.72805949970147</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.80894281865716</v>
+        <v>12.14505131518723</v>
       </c>
       <c r="C4">
-        <v>13.26523472482712</v>
+        <v>8.274091327190952</v>
       </c>
       <c r="D4">
-        <v>7.76699760197666</v>
+        <v>11.4826438371689</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.12957002270015</v>
+        <v>27.86123444975495</v>
       </c>
       <c r="G4">
-        <v>17.46957913107594</v>
+        <v>24.70724173409427</v>
       </c>
       <c r="H4">
-        <v>7.779288056440234</v>
+        <v>13.3748039584227</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.505606058274715</v>
+        <v>11.25266641127358</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.68318979366214</v>
+        <v>16.60609102043317</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.09788576380077</v>
+        <v>19.79936914200351</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43973750242401</v>
+        <v>11.96891064808684</v>
       </c>
       <c r="C5">
-        <v>13.04644132996446</v>
+        <v>8.155787229578483</v>
       </c>
       <c r="D5">
-        <v>7.702837488230046</v>
+        <v>11.47829810556364</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.09364901736196</v>
+        <v>27.89280912608766</v>
       </c>
       <c r="G5">
-        <v>17.41630620147965</v>
+        <v>24.74588626205982</v>
       </c>
       <c r="H5">
-        <v>7.807643586150031</v>
+        <v>13.39226277770262</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.51819940637813</v>
+        <v>11.26327686367837</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.43706583953468</v>
+        <v>16.54780021121669</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.12451248483705</v>
+        <v>19.82982981826488</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37769992070396</v>
+        <v>11.93940142864352</v>
       </c>
       <c r="C6">
-        <v>13.00975229802931</v>
+        <v>8.135960783161632</v>
       </c>
       <c r="D6">
-        <v>7.692184902902345</v>
+        <v>11.47760416511131</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.08802295773146</v>
+        <v>27.89818061827813</v>
       </c>
       <c r="G6">
-        <v>17.40797104916948</v>
+        <v>24.75247513063336</v>
       </c>
       <c r="H6">
-        <v>7.81245021742385</v>
+        <v>13.39520261160692</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.52035202187696</v>
+        <v>11.26506559941904</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.39582522379556</v>
+        <v>16.53812670738845</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.12917226040691</v>
+        <v>19.83497230056387</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.80401261539994</v>
+        <v>12.14269346034029</v>
       </c>
       <c r="C7">
-        <v>13.26230813287207</v>
+        <v>8.27250812603396</v>
       </c>
       <c r="D7">
-        <v>7.766132298936525</v>
+        <v>11.48258337653303</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.12906276960906</v>
+        <v>27.8616516537243</v>
       </c>
       <c r="G7">
-        <v>17.46882625311717</v>
+        <v>24.70775136351034</v>
       </c>
       <c r="H7">
-        <v>7.779663837616231</v>
+        <v>13.37503667811965</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.505771750402435</v>
+        <v>11.25280770567992</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.67989554849526</v>
+        <v>16.60530455033774</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.09822873492909</v>
+        <v>19.79977427703234</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.57896469232898</v>
+        <v>13.0005040128598</v>
       </c>
       <c r="C8">
-        <v>14.32373131628562</v>
+        <v>8.847792317918007</v>
       </c>
       <c r="D8">
-        <v>8.091978645238603</v>
+        <v>11.50855364066426</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.3605136625337</v>
+        <v>27.71920508489159</v>
       </c>
       <c r="G8">
-        <v>17.81337139079961</v>
+        <v>24.53555641195859</v>
       </c>
       <c r="H8">
-        <v>7.649786536562223</v>
+        <v>13.29198305788585</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.450628844620216</v>
+        <v>11.20262317302723</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.87804174628432</v>
+        <v>16.90215049830577</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.99789001485533</v>
+        <v>19.65676852913016</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.67909825495565</v>
+        <v>14.53142921042059</v>
       </c>
       <c r="C9">
-        <v>16.20795972070577</v>
+        <v>9.871788862693197</v>
       </c>
       <c r="D9">
-        <v>8.723733213891887</v>
+        <v>11.57360837497604</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.00439358634243</v>
+        <v>27.50782920905308</v>
       </c>
       <c r="G9">
-        <v>18.77421864561603</v>
+        <v>24.28981268114628</v>
       </c>
       <c r="H9">
-        <v>7.453762811898393</v>
+        <v>13.15046575369858</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.378143154655609</v>
+        <v>11.11825309926145</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.12030815017626</v>
+        <v>17.48180768227678</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.94623949075368</v>
+        <v>19.420899695221</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.72719720141258</v>
+        <v>15.55727383450511</v>
       </c>
       <c r="C10">
-        <v>17.46846226103781</v>
+        <v>10.55656199752476</v>
       </c>
       <c r="D10">
-        <v>9.179168568415907</v>
+        <v>11.62977551268819</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.59937031073965</v>
+        <v>27.39445548481372</v>
       </c>
       <c r="G10">
-        <v>19.65948282468574</v>
+        <v>24.16657864059884</v>
       </c>
       <c r="H10">
-        <v>7.351060994582001</v>
+        <v>13.05952905197012</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.349158389530735</v>
+        <v>11.06482605139433</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.70557082811597</v>
+        <v>17.90275967959853</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.01027306745909</v>
+        <v>19.27505048627597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.60977419269641</v>
+        <v>16.00145195809728</v>
       </c>
       <c r="C11">
-        <v>18.01462055509433</v>
+        <v>10.85279524589559</v>
       </c>
       <c r="D11">
-        <v>9.383709340931778</v>
+        <v>11.65708746123939</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.89736360195453</v>
+        <v>27.35207709060716</v>
       </c>
       <c r="G11">
-        <v>20.10127679947848</v>
+        <v>24.12320615840502</v>
       </c>
       <c r="H11">
-        <v>7.314627234745323</v>
+        <v>13.02099513156283</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.341822731173748</v>
+        <v>11.04237937907692</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.38923805026832</v>
+        <v>18.09249128794276</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.06431601751518</v>
+        <v>19.21471820992363</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93698433662037</v>
+        <v>16.16635257413016</v>
       </c>
       <c r="C12">
-        <v>18.21750368921544</v>
+        <v>10.96273562453577</v>
       </c>
       <c r="D12">
-        <v>9.460731610435843</v>
+        <v>11.667677653849</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.01417914879953</v>
+        <v>27.33735872578984</v>
       </c>
       <c r="G12">
-        <v>20.27414826016467</v>
+        <v>24.10862440724357</v>
       </c>
       <c r="H12">
-        <v>7.302426677437356</v>
+        <v>13.00681134133299</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.339936253912029</v>
+        <v>11.03414657459353</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.64279424275258</v>
+        <v>18.16402793168515</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.08857679563405</v>
+        <v>19.19274188596158</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.86682420434944</v>
+        <v>16.1309859724966</v>
       </c>
       <c r="C13">
-        <v>18.17398432977444</v>
+        <v>10.93915803576303</v>
       </c>
       <c r="D13">
-        <v>9.44416350375511</v>
+        <v>11.66538593846292</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.98884367846726</v>
+        <v>27.34046935738214</v>
       </c>
       <c r="G13">
-        <v>20.23667041700519</v>
+        <v>24.11168263426146</v>
       </c>
       <c r="H13">
-        <v>7.304981371619842</v>
+        <v>13.0098479095519</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.34030207782602</v>
+        <v>11.03590776734086</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.58842267374399</v>
+        <v>18.14863594015565</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.08317972394934</v>
+        <v>19.19743609536148</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.63683394698391</v>
+        <v>16.01508490503962</v>
       </c>
       <c r="C14">
-        <v>18.03139079118445</v>
+        <v>10.86188513770668</v>
       </c>
       <c r="D14">
-        <v>9.390054962239665</v>
+        <v>11.65795379007298</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.90689430059391</v>
+        <v>27.35083952028831</v>
       </c>
       <c r="G14">
-        <v>20.11538769167345</v>
+        <v>24.12196948566812</v>
       </c>
       <c r="H14">
-        <v>7.313590807588249</v>
+        <v>13.01982003821035</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.341649371088372</v>
+        <v>11.04169670408258</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.41020483511871</v>
+        <v>18.09838319652217</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.06623471590191</v>
+        <v>19.21289273463464</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.49504820487199</v>
+        <v>15.94366063454744</v>
       </c>
       <c r="C15">
-        <v>17.94353537258203</v>
+        <v>10.81426090517711</v>
       </c>
       <c r="D15">
-        <v>9.356854096832484</v>
+        <v>11.65343348046026</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.85721617091124</v>
+        <v>27.3573648719856</v>
       </c>
       <c r="G15">
-        <v>20.04182255036325</v>
+        <v>24.12851093030762</v>
       </c>
       <c r="H15">
-        <v>7.319075771954799</v>
+        <v>13.02598143171018</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.342592231351789</v>
+        <v>11.04527740500859</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.30034836599676</v>
+        <v>18.06755982489649</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.05635585445788</v>
+        <v>19.22247385257715</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.66853540957428</v>
+        <v>15.5277873008951</v>
       </c>
       <c r="C16">
-        <v>17.43221948403953</v>
+        <v>10.53689147673029</v>
       </c>
       <c r="D16">
-        <v>9.165743496050178</v>
+        <v>11.62802558854858</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.58044967903107</v>
+        <v>27.39741067477653</v>
       </c>
       <c r="G16">
-        <v>19.63139366434079</v>
+        <v>24.16967001521667</v>
       </c>
       <c r="H16">
-        <v>7.35365887097017</v>
+        <v>13.06210441318724</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.349759752781465</v>
+        <v>11.06633038566496</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.66014207625649</v>
+        <v>17.89031988337855</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.0072610867112</v>
+        <v>19.27911483080932</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.1489580998102</v>
+        <v>15.26685200384555</v>
       </c>
       <c r="C17">
-        <v>17.11154846639053</v>
+        <v>10.36279103966306</v>
       </c>
       <c r="D17">
-        <v>9.047786870642359</v>
+        <v>11.61288593483285</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.41769798554276</v>
+        <v>27.42433798297424</v>
       </c>
       <c r="G17">
-        <v>19.38959508124837</v>
+        <v>24.19818265681264</v>
       </c>
       <c r="H17">
-        <v>7.377590289340404</v>
+        <v>13.08499094170091</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.355690184828902</v>
+        <v>11.07972157733968</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.25783561779791</v>
+        <v>17.78109636120737</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.98367975841541</v>
+        <v>19.31540660269703</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.8454841979091</v>
+        <v>15.1146557216384</v>
       </c>
       <c r="C18">
-        <v>16.9245421583991</v>
+        <v>10.26121731288458</v>
       </c>
       <c r="D18">
-        <v>8.979695621680062</v>
+        <v>11.6043441310913</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.32665911186747</v>
+        <v>27.4406910350488</v>
       </c>
       <c r="G18">
-        <v>19.25420255287443</v>
+        <v>24.2157755827276</v>
       </c>
       <c r="H18">
-        <v>7.39231577284775</v>
+        <v>13.09842134000462</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.359648694824667</v>
+        <v>11.08759866978861</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.02290851307193</v>
+        <v>17.7181113816662</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.972449351828</v>
+        <v>19.33684654381811</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.74193677115663</v>
+        <v>15.06276398745256</v>
       </c>
       <c r="C19">
-        <v>16.86078523262245</v>
+        <v>10.22658096631616</v>
       </c>
       <c r="D19">
-        <v>8.956600650862045</v>
+        <v>11.60148071838446</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.29627507521813</v>
+        <v>27.4463762671616</v>
       </c>
       <c r="G19">
-        <v>19.20899458197206</v>
+        <v>24.2219366034574</v>
       </c>
       <c r="H19">
-        <v>7.397463113038608</v>
+        <v>13.10301442263474</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.361081508505757</v>
+        <v>11.09029574126082</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.94275814946152</v>
+        <v>17.69675961825741</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.96904091030133</v>
+        <v>19.34420276980049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.20474643040839</v>
+        <v>15.29484824594806</v>
       </c>
       <c r="C20">
-        <v>17.14595005133675</v>
+        <v>10.38147324237729</v>
       </c>
       <c r="D20">
-        <v>9.060369397919663</v>
+        <v>11.61448042255652</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.43475668374489</v>
+        <v>27.42138192938238</v>
       </c>
       <c r="G20">
-        <v>19.41495396174685</v>
+        <v>24.19502380888892</v>
       </c>
       <c r="H20">
-        <v>7.374942484784111</v>
+        <v>13.08252702711617</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.355001859915467</v>
+        <v>11.07827796648112</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.30102689165659</v>
+        <v>17.79274063084405</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.98594699373826</v>
+        <v>19.31148467797907</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.70457720297567</v>
+        <v>16.04921788794035</v>
       </c>
       <c r="C21">
-        <v>18.0733808413814</v>
+        <v>10.88464304794921</v>
       </c>
       <c r="D21">
-        <v>9.405960086429355</v>
+        <v>11.66013011370134</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.93085676748743</v>
+        <v>27.34775741907664</v>
       </c>
       <c r="G21">
-        <v>20.15086059831142</v>
+        <v>24.11889784837476</v>
       </c>
       <c r="H21">
-        <v>7.311017727345207</v>
+        <v>13.01687989902899</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.341229037688604</v>
+        <v>11.03998909838935</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.46269602880594</v>
+        <v>18.11315252160697</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.07110722128925</v>
+        <v>19.20832908658277</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.6440186306931</v>
+        <v>16.52298482325946</v>
       </c>
       <c r="C22">
-        <v>18.65657383104245</v>
+        <v>11.20044284670741</v>
       </c>
       <c r="D22">
-        <v>9.629281312850459</v>
+        <v>11.69140614745988</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.27824781633545</v>
+        <v>27.30739120300811</v>
       </c>
       <c r="G22">
-        <v>20.66426828239557</v>
+        <v>24.07989162348059</v>
       </c>
       <c r="H22">
-        <v>7.278601016470637</v>
+        <v>12.97635516963984</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.33744789312586</v>
+        <v>11.01652299534735</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.19085342657065</v>
+        <v>18.3207246925468</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.14897887168526</v>
+        <v>19.14598553833352</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.14633157183602</v>
+        <v>16.27190737322582</v>
       </c>
       <c r="C23">
-        <v>18.34741389490891</v>
+        <v>11.03310005997697</v>
       </c>
       <c r="D23">
-        <v>9.510338751870476</v>
+        <v>11.67458355362223</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.09070951919158</v>
+        <v>27.32822396912406</v>
       </c>
       <c r="G23">
-        <v>20.38730524993921</v>
+        <v>24.0997211435802</v>
       </c>
       <c r="H23">
-        <v>7.295005635993047</v>
+        <v>12.99776602267795</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.338971262751744</v>
+        <v>11.02890469957853</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.80504479275948</v>
+        <v>18.21012586645024</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.10531770103387</v>
+        <v>19.17879342055651</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.17953936312994</v>
+        <v>15.28219793335998</v>
       </c>
       <c r="C24">
-        <v>17.13040534216099</v>
+        <v>10.37303162861478</v>
       </c>
       <c r="D24">
-        <v>9.054681694160655</v>
+        <v>11.61375904905868</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.42703657152766</v>
+        <v>27.42271564494756</v>
       </c>
       <c r="G24">
-        <v>19.40347793091074</v>
+        <v>24.19644818554006</v>
       </c>
       <c r="H24">
-        <v>7.376136554051067</v>
+        <v>13.08364011371818</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.355311345296561</v>
+        <v>11.0789300675095</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.28151144547625</v>
+        <v>17.78747684683999</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.98491474548553</v>
+        <v>19.31325598844014</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.88095396953227</v>
+        <v>14.13424092805421</v>
       </c>
       <c r="C25">
-        <v>15.71978894114044</v>
+        <v>9.606389527948746</v>
       </c>
       <c r="D25">
-        <v>8.554074111641745</v>
+        <v>11.55452053447345</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.80914973285135</v>
+        <v>27.55768331318398</v>
       </c>
       <c r="G25">
-        <v>18.48297810253605</v>
+        <v>24.34631501451069</v>
       </c>
       <c r="H25">
-        <v>7.49996125733436</v>
+        <v>13.18646222654004</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.393680412931267</v>
+        <v>11.13957425825686</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.50294485981034</v>
+        <v>17.32561601625176</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.94326555338574</v>
+        <v>19.47990902530768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.22299422634783</v>
+        <v>21.03406668382576</v>
       </c>
       <c r="C2">
-        <v>8.996801150313807</v>
+        <v>14.59815978337015</v>
       </c>
       <c r="D2">
-        <v>11.51655450499791</v>
+        <v>8.179954241648264</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.68518895197605</v>
+        <v>18.43580448520313</v>
       </c>
       <c r="G2">
-        <v>24.4950714765633</v>
+        <v>17.92569362246104</v>
       </c>
       <c r="H2">
-        <v>13.2709238882142</v>
+        <v>7.618373631744782</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.18997596994233</v>
+        <v>6.438010028928928</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.98254418702167</v>
+        <v>16.18883094426885</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.62102681839587</v>
+        <v>11.98001430731613</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.56644524088066</v>
+        <v>19.68523784994683</v>
       </c>
       <c r="C3">
-        <v>8.556860847598086</v>
+        <v>13.78740426378156</v>
       </c>
       <c r="D3">
-        <v>11.49442813186268</v>
+        <v>7.92437920007668</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.78898571170069</v>
+        <v>18.23167531415006</v>
       </c>
       <c r="G3">
-        <v>24.61942599621873</v>
+        <v>17.62137751568419</v>
       </c>
       <c r="H3">
-        <v>13.33361956417977</v>
+        <v>7.713784618348016</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.22772105426296</v>
+        <v>6.477245183482837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.74929109801742</v>
+        <v>15.27181208851969</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.72805949970147</v>
+        <v>12.04249794915238</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.14505131518723</v>
+        <v>18.80894281865719</v>
       </c>
       <c r="C4">
-        <v>8.274091327190952</v>
+        <v>13.26523472482706</v>
       </c>
       <c r="D4">
-        <v>11.4826438371689</v>
+        <v>7.766997601976694</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.86123444975495</v>
+        <v>18.12957002270007</v>
       </c>
       <c r="G4">
-        <v>24.70724173409427</v>
+        <v>17.46957913107587</v>
       </c>
       <c r="H4">
-        <v>13.3748039584227</v>
+        <v>7.779288056440175</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.25266641127358</v>
+        <v>6.505606058274688</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.60609102043317</v>
+        <v>14.68318979366212</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.79936914200351</v>
+        <v>12.09788576380069</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.96891064808684</v>
+        <v>18.43973750242406</v>
       </c>
       <c r="C5">
-        <v>8.155787229578483</v>
+        <v>13.04644132996454</v>
       </c>
       <c r="D5">
-        <v>11.47829810556364</v>
+        <v>7.702837488230048</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.89280912608766</v>
+        <v>18.09364901736194</v>
       </c>
       <c r="G5">
-        <v>24.74588626205982</v>
+        <v>17.41630620147962</v>
       </c>
       <c r="H5">
-        <v>13.39226277770262</v>
+        <v>7.80764358615003</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.26327686367837</v>
+        <v>6.518199406378107</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.54780021121669</v>
+        <v>14.43706583953465</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.82982981826488</v>
+        <v>12.12451248483704</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.93940142864352</v>
+        <v>18.37769992070396</v>
       </c>
       <c r="C6">
-        <v>8.135960783161632</v>
+        <v>13.00975229802922</v>
       </c>
       <c r="D6">
-        <v>11.47760416511131</v>
+        <v>7.69218490290228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.89818061827813</v>
+        <v>18.08802295773145</v>
       </c>
       <c r="G6">
-        <v>24.75247513063336</v>
+        <v>17.40797104916954</v>
       </c>
       <c r="H6">
-        <v>13.39520261160692</v>
+        <v>7.812450217423847</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.26506559941904</v>
+        <v>6.520352021876957</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.53812670738845</v>
+        <v>14.39582522379555</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.83497230056387</v>
+        <v>12.12917226040693</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14269346034029</v>
+        <v>18.80401261539987</v>
       </c>
       <c r="C7">
-        <v>8.27250812603396</v>
+        <v>13.26230813287216</v>
       </c>
       <c r="D7">
-        <v>11.48258337653303</v>
+        <v>7.766132298936332</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.8616516537243</v>
+        <v>18.12906276960904</v>
       </c>
       <c r="G7">
-        <v>24.70775136351034</v>
+        <v>17.4688262531173</v>
       </c>
       <c r="H7">
-        <v>13.37503667811965</v>
+        <v>7.779663837616288</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.25280770567992</v>
+        <v>6.505771750402439</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.60530455033774</v>
+        <v>14.67989554849524</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.79977427703234</v>
+        <v>12.09822873492917</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.0005040128598</v>
+        <v>20.57896469232896</v>
       </c>
       <c r="C8">
-        <v>8.847792317918007</v>
+        <v>14.32373131628574</v>
       </c>
       <c r="D8">
-        <v>11.50855364066426</v>
+        <v>8.091978645238596</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.71920508489159</v>
+        <v>18.36051366253371</v>
       </c>
       <c r="G8">
-        <v>24.53555641195859</v>
+        <v>17.81337139079955</v>
       </c>
       <c r="H8">
-        <v>13.29198305788585</v>
+        <v>7.649786536562275</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.20262317302723</v>
+        <v>6.450628844620208</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.90215049830577</v>
+        <v>15.87804174628433</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.65676852913016</v>
+        <v>11.99789001485533</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.53142921042059</v>
+        <v>23.67909825495564</v>
       </c>
       <c r="C9">
-        <v>9.871788862693197</v>
+        <v>16.20795972070582</v>
       </c>
       <c r="D9">
-        <v>11.57360837497604</v>
+        <v>8.723733213891983</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.50782920905308</v>
+        <v>19.00439358634235</v>
       </c>
       <c r="G9">
-        <v>24.28981268114628</v>
+        <v>18.77421864561587</v>
       </c>
       <c r="H9">
-        <v>13.15046575369858</v>
+        <v>7.453762811898329</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.11825309926145</v>
+        <v>6.37814315465551</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.48180768227678</v>
+        <v>18.1203081501763</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.420899695221</v>
+        <v>11.94623949075357</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.55727383450511</v>
+        <v>25.72719720141258</v>
       </c>
       <c r="C10">
-        <v>10.55656199752476</v>
+        <v>17.46846226103776</v>
       </c>
       <c r="D10">
-        <v>11.62977551268819</v>
+        <v>9.179168568415953</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.39445548481372</v>
+        <v>19.5993703107397</v>
       </c>
       <c r="G10">
-        <v>24.16657864059884</v>
+        <v>19.65948282468579</v>
       </c>
       <c r="H10">
-        <v>13.05952905197012</v>
+        <v>7.351060994582001</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.06482605139433</v>
+        <v>6.349158389530704</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.90275967959853</v>
+        <v>19.70557082811597</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.27505048627597</v>
+        <v>12.01027306745913</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.00145195809728</v>
+        <v>26.60977419269648</v>
       </c>
       <c r="C11">
-        <v>10.85279524589559</v>
+        <v>18.01462055509417</v>
       </c>
       <c r="D11">
-        <v>11.65708746123939</v>
+        <v>9.383709340931775</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.35207709060716</v>
+        <v>19.8973636019545</v>
       </c>
       <c r="G11">
-        <v>24.12320615840502</v>
+        <v>20.10127679947852</v>
       </c>
       <c r="H11">
-        <v>13.02099513156283</v>
+        <v>7.314627234745291</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.04237937907692</v>
+        <v>6.341822731173711</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.09249128794276</v>
+        <v>20.38923805026837</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.21471820992363</v>
+        <v>12.06431601751517</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.16635257413016</v>
+        <v>26.93698433662038</v>
       </c>
       <c r="C12">
-        <v>10.96273562453577</v>
+        <v>18.21750368921544</v>
       </c>
       <c r="D12">
-        <v>11.667677653849</v>
+        <v>9.460731610435914</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.33735872578984</v>
+        <v>20.01417914879958</v>
       </c>
       <c r="G12">
-        <v>24.10862440724357</v>
+        <v>20.27414826016468</v>
       </c>
       <c r="H12">
-        <v>13.00681134133299</v>
+        <v>7.30242667743746</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.03414657459353</v>
+        <v>6.339936253912025</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.16402793168515</v>
+        <v>20.64279424275256</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.19274188596158</v>
+        <v>12.08857679563406</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.1309859724966</v>
+        <v>26.86682420434947</v>
       </c>
       <c r="C13">
-        <v>10.93915803576303</v>
+        <v>18.17398432977436</v>
       </c>
       <c r="D13">
-        <v>11.66538593846292</v>
+        <v>9.444163503755036</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.34046935738214</v>
+        <v>19.98884367846714</v>
       </c>
       <c r="G13">
-        <v>24.11168263426146</v>
+        <v>20.23667041700514</v>
       </c>
       <c r="H13">
-        <v>13.0098479095519</v>
+        <v>7.3049813716198</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.03590776734086</v>
+        <v>6.340302077826059</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.14863594015565</v>
+        <v>20.58842267374401</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.19743609536148</v>
+        <v>12.08317972394925</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.01508490503962</v>
+        <v>26.63683394698392</v>
       </c>
       <c r="C14">
-        <v>10.86188513770668</v>
+        <v>18.03139079118435</v>
       </c>
       <c r="D14">
-        <v>11.65795379007298</v>
+        <v>9.390054962239567</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.35083952028831</v>
+        <v>19.90689430059398</v>
       </c>
       <c r="G14">
-        <v>24.12196948566812</v>
+        <v>20.11538769167353</v>
       </c>
       <c r="H14">
-        <v>13.01982003821035</v>
+        <v>7.313590807588414</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.04169670408258</v>
+        <v>6.341649371088325</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.09838319652217</v>
+        <v>20.41020483511871</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.21289273463464</v>
+        <v>12.06623471590204</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.94366063454744</v>
+        <v>26.49504820487203</v>
       </c>
       <c r="C15">
-        <v>10.81426090517711</v>
+        <v>17.94353537258199</v>
       </c>
       <c r="D15">
-        <v>11.65343348046026</v>
+        <v>9.356854096832485</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.3573648719856</v>
+        <v>19.85721617091124</v>
       </c>
       <c r="G15">
-        <v>24.12851093030762</v>
+        <v>20.04182255036322</v>
       </c>
       <c r="H15">
-        <v>13.02598143171018</v>
+        <v>7.319075771954826</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.04527740500859</v>
+        <v>6.342592231351786</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.06755982489649</v>
+        <v>20.30034836599679</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.22247385257715</v>
+        <v>12.05635585445791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.5277873008951</v>
+        <v>25.66853540957419</v>
       </c>
       <c r="C16">
-        <v>10.53689147673029</v>
+        <v>17.43221948403971</v>
       </c>
       <c r="D16">
-        <v>11.62802558854858</v>
+        <v>9.165743496050283</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.39741067477653</v>
+        <v>19.58044967903116</v>
       </c>
       <c r="G16">
-        <v>24.16967001521667</v>
+        <v>19.6313936643408</v>
       </c>
       <c r="H16">
-        <v>13.06210441318724</v>
+        <v>7.353658870970209</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.06633038566496</v>
+        <v>6.349759752781384</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.89031988337855</v>
+        <v>19.66014207625649</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.27911483080932</v>
+        <v>12.00726108671122</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.26685200384555</v>
+        <v>25.14895809981007</v>
       </c>
       <c r="C17">
-        <v>10.36279103966306</v>
+        <v>17.11154846639054</v>
       </c>
       <c r="D17">
-        <v>11.61288593483285</v>
+        <v>9.047786870642351</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.42433798297424</v>
+        <v>19.41769798554283</v>
       </c>
       <c r="G17">
-        <v>24.19818265681264</v>
+        <v>19.38959508124845</v>
       </c>
       <c r="H17">
-        <v>13.08499094170091</v>
+        <v>7.377590289340451</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.07972157733968</v>
+        <v>6.355690184828952</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.78109636120737</v>
+        <v>19.25783561779786</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.31540660269703</v>
+        <v>11.98367975841552</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.1146557216384</v>
+        <v>24.84548419790911</v>
       </c>
       <c r="C18">
-        <v>10.26121731288458</v>
+        <v>16.92454215839903</v>
       </c>
       <c r="D18">
-        <v>11.6043441310913</v>
+        <v>8.979695621680261</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.4406910350488</v>
+        <v>19.32665911186756</v>
       </c>
       <c r="G18">
-        <v>24.2157755827276</v>
+        <v>19.25420255287441</v>
       </c>
       <c r="H18">
-        <v>13.09842134000462</v>
+        <v>7.392315772847733</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.08759866978861</v>
+        <v>6.359648694824689</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.7181113816662</v>
+        <v>19.02290851307189</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.33684654381811</v>
+        <v>11.972449351828</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.06276398745256</v>
+        <v>24.74193677115652</v>
       </c>
       <c r="C19">
-        <v>10.22658096631616</v>
+        <v>16.86078523262251</v>
       </c>
       <c r="D19">
-        <v>11.60148071838446</v>
+        <v>8.956600650861898</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.4463762671616</v>
+        <v>19.2962750752182</v>
       </c>
       <c r="G19">
-        <v>24.2219366034574</v>
+        <v>19.20899458197224</v>
       </c>
       <c r="H19">
-        <v>13.10301442263474</v>
+        <v>7.397463113038709</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.09029574126082</v>
+        <v>6.361081508505753</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.69675961825741</v>
+        <v>18.94275814946152</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.34420276980049</v>
+        <v>11.96904091030149</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.29484824594806</v>
+        <v>25.20474643040843</v>
       </c>
       <c r="C20">
-        <v>10.38147324237729</v>
+        <v>17.1459500513368</v>
       </c>
       <c r="D20">
-        <v>11.61448042255652</v>
+        <v>9.060369397919676</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.42138192938238</v>
+        <v>19.43475668374475</v>
       </c>
       <c r="G20">
-        <v>24.19502380888892</v>
+        <v>19.41495396174673</v>
       </c>
       <c r="H20">
-        <v>13.08252702711617</v>
+        <v>7.374942484784043</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.07827796648112</v>
+        <v>6.355001859915427</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.79274063084405</v>
+        <v>19.30102689165663</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.31148467797907</v>
+        <v>11.9859469937381</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.04921788794035</v>
+        <v>26.70457720297569</v>
       </c>
       <c r="C21">
-        <v>10.88464304794921</v>
+        <v>18.07338084138146</v>
       </c>
       <c r="D21">
-        <v>11.66013011370134</v>
+        <v>9.405960086429308</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.34775741907664</v>
+        <v>19.93085676748735</v>
       </c>
       <c r="G21">
-        <v>24.11889784837476</v>
+        <v>20.15086059831133</v>
       </c>
       <c r="H21">
-        <v>13.01687989902899</v>
+        <v>7.311017727345195</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.03998909838935</v>
+        <v>6.341229037688616</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.11315252160697</v>
+        <v>20.46269602880597</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.20832908658277</v>
+        <v>12.0711072212892</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.52298482325946</v>
+        <v>27.64401863069305</v>
       </c>
       <c r="C22">
-        <v>11.20044284670741</v>
+        <v>18.65657383104251</v>
       </c>
       <c r="D22">
-        <v>11.69140614745988</v>
+        <v>9.629281312850384</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.30739120300811</v>
+        <v>20.27824781633548</v>
       </c>
       <c r="G22">
-        <v>24.07989162348059</v>
+        <v>20.66426828239555</v>
       </c>
       <c r="H22">
-        <v>12.97635516963984</v>
+        <v>7.278601016470768</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.01652299534735</v>
+        <v>6.337447893125857</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.3207246925468</v>
+        <v>21.19085342657063</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.14598553833352</v>
+        <v>12.14897887168533</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.27190737322582</v>
+        <v>27.146331571836</v>
       </c>
       <c r="C23">
-        <v>11.03310005997697</v>
+        <v>18.34741389490886</v>
       </c>
       <c r="D23">
-        <v>11.67458355362223</v>
+        <v>9.510338751870488</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.32822396912406</v>
+        <v>20.09070951919171</v>
       </c>
       <c r="G23">
-        <v>24.0997211435802</v>
+        <v>20.38730524993924</v>
       </c>
       <c r="H23">
-        <v>12.99776602267795</v>
+        <v>7.295005635993104</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.02890469957853</v>
+        <v>6.338971262751726</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.21012586645024</v>
+        <v>20.80504479275945</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.17879342055651</v>
+        <v>12.10531770103399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.28219793335998</v>
+        <v>25.17953936312998</v>
       </c>
       <c r="C24">
-        <v>10.37303162861478</v>
+        <v>17.130405342161</v>
       </c>
       <c r="D24">
-        <v>11.61375904905868</v>
+        <v>9.05468169416072</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.42271564494756</v>
+        <v>19.42703657152769</v>
       </c>
       <c r="G24">
-        <v>24.19644818554006</v>
+        <v>19.40347793091075</v>
       </c>
       <c r="H24">
-        <v>13.08364011371818</v>
+        <v>7.376136554051025</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.0789300675095</v>
+        <v>6.355311345296507</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.78747684683999</v>
+        <v>19.28151144547625</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.31325598844014</v>
+        <v>11.98491474548549</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.13424092805421</v>
+        <v>22.88095396953227</v>
       </c>
       <c r="C25">
-        <v>9.606389527948746</v>
+        <v>15.71978894114034</v>
       </c>
       <c r="D25">
-        <v>11.55452053447345</v>
+        <v>8.554074111641659</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.55768331318398</v>
+        <v>18.80914973285136</v>
       </c>
       <c r="G25">
-        <v>24.34631501451069</v>
+        <v>18.48297810253611</v>
       </c>
       <c r="H25">
-        <v>13.18646222654004</v>
+        <v>7.499961257334367</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.13957425825686</v>
+        <v>6.393680412931271</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.32561601625176</v>
+        <v>17.50294485981036</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.47990902530768</v>
+        <v>11.94326555338579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.03406668382576</v>
+        <v>14.63649357365592</v>
       </c>
       <c r="C2">
-        <v>14.59815978337015</v>
+        <v>6.722549672806986</v>
       </c>
       <c r="D2">
-        <v>8.179954241648264</v>
+        <v>4.903053874591149</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.43580448520313</v>
+        <v>27.57010023221585</v>
       </c>
       <c r="G2">
-        <v>17.92569362246104</v>
+        <v>34.30115480783281</v>
       </c>
       <c r="H2">
-        <v>7.618373631744782</v>
+        <v>3.286305363337138</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.877635059956567</v>
       </c>
       <c r="J2">
-        <v>6.438010028928928</v>
+        <v>11.91653046883382</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.30924122556273</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.006105820512595</v>
       </c>
       <c r="M2">
-        <v>16.18883094426885</v>
+        <v>11.46251237686759</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.439610430374414</v>
       </c>
       <c r="O2">
-        <v>11.98001430731613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>14.11420705650862</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68523784994683</v>
+        <v>13.77089114317583</v>
       </c>
       <c r="C3">
-        <v>13.78740426378156</v>
+        <v>6.365334628888567</v>
       </c>
       <c r="D3">
-        <v>7.92437920007668</v>
+        <v>4.709146740583587</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.23167531415006</v>
+        <v>27.12133752175874</v>
       </c>
       <c r="G3">
-        <v>17.62137751568419</v>
+        <v>33.6657119657975</v>
       </c>
       <c r="H3">
-        <v>7.713784618348016</v>
+        <v>3.501685814391036</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.047599946826773</v>
       </c>
       <c r="J3">
-        <v>6.477245183482837</v>
+        <v>11.87470720045811</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.21505341174194</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.933194379649843</v>
       </c>
       <c r="M3">
-        <v>15.27181208851969</v>
+        <v>10.78739703084314</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.204920029625174</v>
       </c>
       <c r="O3">
-        <v>12.04249794915238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>14.25432498624682</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.80894281865719</v>
+        <v>13.21025797060686</v>
       </c>
       <c r="C4">
-        <v>13.26523472482706</v>
+        <v>6.13804279327756</v>
       </c>
       <c r="D4">
-        <v>7.766997601976694</v>
+        <v>4.586775176887278</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.12957002270007</v>
+        <v>26.84852531465381</v>
       </c>
       <c r="G4">
-        <v>17.46957913107587</v>
+        <v>33.27903026190852</v>
       </c>
       <c r="H4">
-        <v>7.779288056440175</v>
+        <v>3.63887853130978</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.156450012297113</v>
       </c>
       <c r="J4">
-        <v>6.505606058274688</v>
+        <v>11.85161357192695</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.15991659276614</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.886859964736069</v>
       </c>
       <c r="M4">
-        <v>14.68318979366212</v>
+        <v>10.37035912236811</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.057598462004543</v>
       </c>
       <c r="O4">
-        <v>12.09788576380069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>14.34154869739952</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43973750242406</v>
+        <v>12.96922707114171</v>
       </c>
       <c r="C5">
-        <v>13.04644132996454</v>
+        <v>6.04837858035522</v>
       </c>
       <c r="D5">
-        <v>7.702837488230048</v>
+        <v>4.537275138731469</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.09364901736194</v>
+        <v>26.7294695148971</v>
       </c>
       <c r="G5">
-        <v>17.41630620147962</v>
+        <v>33.10760258950959</v>
       </c>
       <c r="H5">
-        <v>7.80764358615003</v>
+        <v>3.696417569134749</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.204411328814246</v>
       </c>
       <c r="J5">
-        <v>6.518199406378107</v>
+        <v>11.84017534310963</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.13179077483161</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.866913340800449</v>
       </c>
       <c r="M5">
-        <v>14.43706583953465</v>
+        <v>10.19479505629514</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.997875938883922</v>
       </c>
       <c r="O5">
-        <v>12.12451248483704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>14.37622364211501</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37769992070396</v>
+        <v>12.92221655557518</v>
       </c>
       <c r="C6">
-        <v>13.00975229802922</v>
+        <v>6.039426256055217</v>
       </c>
       <c r="D6">
-        <v>7.69218490290228</v>
+        <v>4.530410405628991</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.08802295773145</v>
+        <v>26.69916208043066</v>
       </c>
       <c r="G6">
-        <v>17.40797104916954</v>
+        <v>33.06103141244557</v>
       </c>
       <c r="H6">
-        <v>7.812450217423847</v>
+        <v>3.706500973541332</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.215588056014163</v>
       </c>
       <c r="J6">
-        <v>6.520352021876957</v>
+        <v>11.83505174092055</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.11942352507494</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.862757453551139</v>
       </c>
       <c r="M6">
-        <v>14.39582522379555</v>
+        <v>10.16410099736136</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.989214675416716</v>
       </c>
       <c r="O6">
-        <v>12.12917226040693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>14.38056185560898</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.80401261539987</v>
+        <v>13.18950696790948</v>
       </c>
       <c r="C7">
-        <v>13.26230813287216</v>
+        <v>6.153079281163791</v>
       </c>
       <c r="D7">
-        <v>7.766132298936332</v>
+        <v>4.589879062103102</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.12906276960904</v>
+        <v>26.81818095291189</v>
       </c>
       <c r="G7">
-        <v>17.4688262531173</v>
+        <v>33.22741721674836</v>
       </c>
       <c r="H7">
-        <v>7.779663837616288</v>
+        <v>3.64086554092418</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.165417947490485</v>
       </c>
       <c r="J7">
-        <v>6.505771750402439</v>
+        <v>11.84257406220774</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.13846485490197</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.884373873798873</v>
       </c>
       <c r="M7">
-        <v>14.67989554849524</v>
+        <v>10.36460361853366</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.060309127554213</v>
       </c>
       <c r="O7">
-        <v>12.09822873492917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>14.3381364045463</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.57896469232896</v>
+        <v>14.3225557269348</v>
       </c>
       <c r="C8">
-        <v>14.32373131628574</v>
+        <v>6.621254419441171</v>
       </c>
       <c r="D8">
-        <v>8.091978645238596</v>
+        <v>4.841657738082489</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.36051366253371</v>
+        <v>27.37770448710478</v>
       </c>
       <c r="G8">
-        <v>17.81337139079955</v>
+        <v>34.01779395075368</v>
       </c>
       <c r="H8">
-        <v>7.649786536562275</v>
+        <v>3.361076939704827</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.945895896727952</v>
       </c>
       <c r="J8">
-        <v>6.450628844620208</v>
+        <v>11.8899488107451</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.24864155571285</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.978446634671817</v>
       </c>
       <c r="M8">
-        <v>15.87804174628433</v>
+        <v>11.2121317831428</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.363885340279343</v>
       </c>
       <c r="O8">
-        <v>11.99789001485533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>14.15736904650415</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.67909825495564</v>
+        <v>16.33754311110574</v>
       </c>
       <c r="C9">
-        <v>16.20795972070582</v>
+        <v>7.449141675719845</v>
       </c>
       <c r="D9">
-        <v>8.723733213891983</v>
+        <v>5.300695310657303</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.00439358634235</v>
+        <v>28.5426557754913</v>
       </c>
       <c r="G9">
-        <v>18.77421864561587</v>
+        <v>35.67511971932305</v>
       </c>
       <c r="H9">
-        <v>7.453762811898329</v>
+        <v>2.848867995840759</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.5368471642342</v>
       </c>
       <c r="J9">
-        <v>6.37814315465551</v>
+        <v>12.01946691213791</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.52350693009816</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.154322643674848</v>
       </c>
       <c r="M9">
-        <v>18.1203081501763</v>
+        <v>12.91615963371515</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.925225841313933</v>
       </c>
       <c r="O9">
-        <v>11.94623949075357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>13.81831598038022</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.72719720141258</v>
+        <v>17.61321613565576</v>
       </c>
       <c r="C10">
-        <v>17.46846226103776</v>
+        <v>8.047038113157507</v>
       </c>
       <c r="D10">
-        <v>9.179168568415953</v>
+        <v>5.578302338547505</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.5993703107397</v>
+        <v>29.23557579523058</v>
       </c>
       <c r="G10">
-        <v>19.65948282468579</v>
+        <v>36.66443725620285</v>
       </c>
       <c r="H10">
-        <v>7.351060994582001</v>
+        <v>2.523683287326563</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.26829694093203</v>
       </c>
       <c r="J10">
-        <v>6.349158389530704</v>
+        <v>12.08375675766603</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.64494495183267</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.24042285195231</v>
       </c>
       <c r="M10">
-        <v>19.70557082811597</v>
+        <v>14.01688515216197</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.226660388434569</v>
       </c>
       <c r="O10">
-        <v>12.01027306745913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>13.55847571752129</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.60977419269648</v>
+        <v>17.70516411716275</v>
       </c>
       <c r="C11">
-        <v>18.01462055509417</v>
+        <v>8.521909705858571</v>
       </c>
       <c r="D11">
-        <v>9.383709340931775</v>
+        <v>5.349080605388246</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.8973636019545</v>
+        <v>28.16409437083774</v>
       </c>
       <c r="G11">
-        <v>20.10127679947852</v>
+        <v>35.21145049879851</v>
       </c>
       <c r="H11">
-        <v>7.314627234745291</v>
+        <v>3.301291916525671</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.217233885619804</v>
       </c>
       <c r="J11">
-        <v>6.341822731173711</v>
+        <v>11.75595187085718</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.94833773487694</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.02706089607543</v>
       </c>
       <c r="M11">
-        <v>20.38923805026837</v>
+        <v>14.29075614051335</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.580972719321149</v>
       </c>
       <c r="O11">
-        <v>12.06431601751517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>13.33269281771328</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93698433662038</v>
+        <v>17.53824344886472</v>
       </c>
       <c r="C12">
-        <v>18.21750368921544</v>
+        <v>8.784987077143827</v>
       </c>
       <c r="D12">
-        <v>9.460731610435914</v>
+        <v>5.091634756982888</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.01417914879958</v>
+        <v>27.14050457527287</v>
       </c>
       <c r="G12">
-        <v>20.27414826016468</v>
+        <v>33.82387212197794</v>
       </c>
       <c r="H12">
-        <v>7.30242667743746</v>
+        <v>4.533400918908476</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.210869592021353</v>
       </c>
       <c r="J12">
-        <v>6.339936253912025</v>
+        <v>11.47561223911359</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.36666054362055</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.903959476082097</v>
       </c>
       <c r="M12">
-        <v>20.64279424275256</v>
+        <v>14.30181449649203</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.986371410662764</v>
       </c>
       <c r="O12">
-        <v>12.08857679563406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>13.21941402796165</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.86682420434947</v>
+        <v>17.13588350119309</v>
       </c>
       <c r="C13">
-        <v>18.17398432977436</v>
+        <v>8.927568758858525</v>
       </c>
       <c r="D13">
-        <v>9.444163503755036</v>
+        <v>4.796720449517649</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.98884367846714</v>
+        <v>26.04049271987546</v>
       </c>
       <c r="G13">
-        <v>20.23667041700514</v>
+        <v>32.31409985808331</v>
       </c>
       <c r="H13">
-        <v>7.3049813716198</v>
+        <v>5.880713586338471</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.252453880361023</v>
       </c>
       <c r="J13">
-        <v>6.340302077826059</v>
+        <v>11.20083918102575</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.80663647066828</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.84154181688413</v>
       </c>
       <c r="M13">
-        <v>20.58842267374401</v>
+        <v>14.10760952514826</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.398803883393271</v>
       </c>
       <c r="O13">
-        <v>12.08317972394925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.17906229165059</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.63683394698392</v>
+        <v>16.7377330255821</v>
       </c>
       <c r="C14">
-        <v>18.03139079118435</v>
+        <v>8.979485840230634</v>
       </c>
       <c r="D14">
-        <v>9.390054962239567</v>
+        <v>4.572486623979796</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.90689430059398</v>
+        <v>25.2280605584969</v>
       </c>
       <c r="G14">
-        <v>20.11538769167353</v>
+        <v>31.18597394946465</v>
       </c>
       <c r="H14">
-        <v>7.313590807588414</v>
+        <v>6.857022829942388</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.305857804224436</v>
       </c>
       <c r="J14">
-        <v>6.341649371088325</v>
+        <v>11.00983352166331</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.42292197345734</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.835684368257325</v>
       </c>
       <c r="M14">
-        <v>20.41020483511871</v>
+        <v>13.8753250822819</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.999594155310463</v>
       </c>
       <c r="O14">
-        <v>12.06623471590204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.18496561339457</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.49504820487203</v>
+        <v>16.58384547912581</v>
       </c>
       <c r="C15">
-        <v>17.94353537258199</v>
+        <v>8.971804239383225</v>
       </c>
       <c r="D15">
-        <v>9.356854096832485</v>
+        <v>4.510735844986251</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.85721617091124</v>
+        <v>25.00658306928919</v>
       </c>
       <c r="G15">
-        <v>20.04182255036322</v>
+        <v>30.87148423257829</v>
       </c>
       <c r="H15">
-        <v>7.319075771954826</v>
+        <v>7.087745130980309</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.333631790516299</v>
       </c>
       <c r="J15">
-        <v>6.342592231351786</v>
+        <v>10.96229138857791</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.32810623660275</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.83707626420182</v>
       </c>
       <c r="M15">
-        <v>20.30034836599679</v>
+        <v>13.77272876245871</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.902676871789594</v>
       </c>
       <c r="O15">
-        <v>12.05635585445791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.19904594635536</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.66853540957419</v>
+        <v>16.10184237102676</v>
       </c>
       <c r="C16">
-        <v>17.43221948403971</v>
+        <v>8.716366858848465</v>
       </c>
       <c r="D16">
-        <v>9.165743496050283</v>
+        <v>4.441862330030745</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.58044967903116</v>
+        <v>24.89418389218499</v>
       </c>
       <c r="G16">
-        <v>19.6313936643408</v>
+        <v>30.68391795904598</v>
       </c>
       <c r="H16">
-        <v>7.353658870970209</v>
+        <v>6.916833596842762</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.444857713418886</v>
       </c>
       <c r="J16">
-        <v>6.349759752781384</v>
+        <v>10.98381739145121</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.37706721455963</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.807778699915591</v>
       </c>
       <c r="M16">
-        <v>19.66014207625649</v>
+        <v>13.34566210399152</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.878372882265632</v>
       </c>
       <c r="O16">
-        <v>12.00726108671122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.311349421444</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.14895809981007</v>
+        <v>15.94698593238865</v>
       </c>
       <c r="C17">
-        <v>17.11154846639054</v>
+        <v>8.487549371312628</v>
       </c>
       <c r="D17">
-        <v>9.047786870642351</v>
+        <v>4.511319532905079</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.41769798554283</v>
+        <v>25.24449520042962</v>
       </c>
       <c r="G17">
-        <v>19.38959508124845</v>
+        <v>31.14916233545154</v>
       </c>
       <c r="H17">
-        <v>7.377590289340451</v>
+        <v>6.242250242198896</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.502643746092457</v>
       </c>
       <c r="J17">
-        <v>6.355690184828952</v>
+        <v>11.10183321236556</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.61666847071419</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.781712847583274</v>
       </c>
       <c r="M17">
-        <v>19.25783561779786</v>
+        <v>13.14062519937298</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.069843157109021</v>
       </c>
       <c r="O17">
-        <v>11.98367975841552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.39414668579467</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.84548419790911</v>
+        <v>16.07406390367995</v>
       </c>
       <c r="C18">
-        <v>16.92454215839903</v>
+        <v>8.247207027340972</v>
       </c>
       <c r="D18">
-        <v>8.979695621680261</v>
+        <v>4.707369149159879</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.32665911186756</v>
+        <v>26.0530717249037</v>
       </c>
       <c r="G18">
-        <v>19.25420255287441</v>
+        <v>32.26168068901552</v>
       </c>
       <c r="H18">
-        <v>7.392315772847733</v>
+        <v>5.103513872572125</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.509549648822943</v>
       </c>
       <c r="J18">
-        <v>6.359648694824689</v>
+        <v>11.3227098787983</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.06725892115267</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.795092629418274</v>
       </c>
       <c r="M18">
-        <v>19.02290851307189</v>
+        <v>13.11273633253021</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.491267291090448</v>
       </c>
       <c r="O18">
-        <v>11.972449351828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.47110444896188</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.74193677115652</v>
+        <v>16.38788592977864</v>
       </c>
       <c r="C19">
-        <v>16.86078523262251</v>
+        <v>8.048807266747799</v>
       </c>
       <c r="D19">
-        <v>8.956600650861898</v>
+        <v>4.996806263415811</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.2962750752182</v>
+        <v>27.12556550159982</v>
       </c>
       <c r="G19">
-        <v>19.20899458197224</v>
+        <v>33.72956013441953</v>
       </c>
       <c r="H19">
-        <v>7.397463113038709</v>
+        <v>3.820034165906375</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.489970944342068</v>
       </c>
       <c r="J19">
-        <v>6.361081508505753</v>
+        <v>11.59725371766196</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.63075326293962</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.894671349529682</v>
       </c>
       <c r="M19">
-        <v>18.94275814946152</v>
+        <v>13.22479662169018</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.098695553415681</v>
       </c>
       <c r="O19">
-        <v>11.96904091030149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.54705044681551</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.20474643040843</v>
+        <v>17.2423774451661</v>
       </c>
       <c r="C20">
-        <v>17.1459500513368</v>
+        <v>7.935157586716786</v>
       </c>
       <c r="D20">
-        <v>9.060369397919676</v>
+        <v>5.514561870940292</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.43475668374475</v>
+        <v>28.96438509123335</v>
       </c>
       <c r="G20">
-        <v>19.41495396174673</v>
+        <v>36.25526522585596</v>
       </c>
       <c r="H20">
-        <v>7.374942484784043</v>
+        <v>2.610677255559823</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.365829901750312</v>
       </c>
       <c r="J20">
-        <v>6.355001859915427</v>
+        <v>12.03772320510183</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.54577055270503</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.210543472918791</v>
       </c>
       <c r="M20">
-        <v>19.30102689165663</v>
+        <v>13.72633947165711</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.153983840671529</v>
       </c>
       <c r="O20">
-        <v>11.9859469937381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>13.6154257286856</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.70457720297569</v>
+        <v>18.26481782391533</v>
       </c>
       <c r="C21">
-        <v>18.07338084138146</v>
+        <v>8.336731419945369</v>
       </c>
       <c r="D21">
-        <v>9.405960086429308</v>
+        <v>5.782845879460535</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.93085676748735</v>
+        <v>29.75775301998936</v>
       </c>
       <c r="G21">
-        <v>20.15086059831133</v>
+        <v>37.37742764636874</v>
       </c>
       <c r="H21">
-        <v>7.311017727345195</v>
+        <v>2.324606156989383</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.151489632333814</v>
       </c>
       <c r="J21">
-        <v>6.341229037688616</v>
+        <v>12.15942073203032</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.78779685497906</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.329418515301917</v>
       </c>
       <c r="M21">
-        <v>20.46269602880597</v>
+        <v>14.56824545321147</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.519932336584652</v>
       </c>
       <c r="O21">
-        <v>12.0711072212892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>13.44091914303845</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.64401863069305</v>
+        <v>18.89592296088575</v>
       </c>
       <c r="C22">
-        <v>18.65657383104251</v>
+        <v>8.587977714259631</v>
       </c>
       <c r="D22">
-        <v>9.629281312850384</v>
+        <v>5.928901378100967</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.27824781633548</v>
+        <v>30.22872853159139</v>
       </c>
       <c r="G22">
-        <v>20.66426828239555</v>
+        <v>38.05629532133111</v>
       </c>
       <c r="H22">
-        <v>7.278601016470768</v>
+        <v>2.153648901495449</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.006360259922985</v>
       </c>
       <c r="J22">
-        <v>6.337447893125857</v>
+        <v>12.23193442337342</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.93120277420912</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.390559884574401</v>
       </c>
       <c r="M22">
-        <v>21.19085342657063</v>
+        <v>15.0868434919066</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.703370942442126</v>
       </c>
       <c r="O22">
-        <v>12.14897887168533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>13.32470727499253</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.146331571836</v>
+        <v>18.57694988486509</v>
       </c>
       <c r="C23">
-        <v>18.34741389490886</v>
+        <v>8.439771426901155</v>
       </c>
       <c r="D23">
-        <v>9.510338751870488</v>
+        <v>5.847773889986494</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.09070951919171</v>
+        <v>30.0075050530357</v>
       </c>
       <c r="G23">
-        <v>20.38730524993924</v>
+        <v>37.74511740155778</v>
       </c>
       <c r="H23">
-        <v>7.295005635993104</v>
+        <v>2.243398698798283</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.072282028790644</v>
       </c>
       <c r="J23">
-        <v>6.338971262751726</v>
+        <v>12.20288349498833</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.87783681037461</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.360341263021018</v>
       </c>
       <c r="M23">
-        <v>20.80504479275945</v>
+        <v>14.81537925486012</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.602342930704248</v>
       </c>
       <c r="O23">
-        <v>12.10531770103399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>13.39054602768641</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.17953936312998</v>
+        <v>17.29108551441257</v>
       </c>
       <c r="C24">
-        <v>17.130405342161</v>
+        <v>7.886868426495777</v>
       </c>
       <c r="D24">
-        <v>9.05468169416072</v>
+        <v>5.537681699429683</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.42703657152769</v>
+        <v>29.12308818890248</v>
       </c>
       <c r="G24">
-        <v>19.40347793091075</v>
+        <v>36.48710418364826</v>
       </c>
       <c r="H24">
-        <v>7.376136554051025</v>
+        <v>2.592483165101152</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.347214505252395</v>
       </c>
       <c r="J24">
-        <v>6.355311345296507</v>
+        <v>12.08292270759992</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.64499500350551</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.239723078193972</v>
       </c>
       <c r="M24">
-        <v>19.28151144547625</v>
+        <v>13.73580803517214</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.216492349551256</v>
       </c>
       <c r="O24">
-        <v>11.98491474548549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>13.6351389533613</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.88095396953227</v>
+        <v>15.7912007233882</v>
       </c>
       <c r="C25">
-        <v>15.71978894114034</v>
+        <v>7.257486773496555</v>
       </c>
       <c r="D25">
-        <v>8.554074111641659</v>
+        <v>5.185877983521183</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.80914973285136</v>
+        <v>28.17710953592911</v>
       </c>
       <c r="G25">
-        <v>18.48297810253611</v>
+        <v>35.14153090832698</v>
       </c>
       <c r="H25">
-        <v>7.499961257334367</v>
+        <v>2.985376158536988</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.6589769063807</v>
       </c>
       <c r="J25">
-        <v>6.393680412931271</v>
+        <v>11.96651392142293</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.40979350415762</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.104337394328732</v>
       </c>
       <c r="M25">
-        <v>17.50294485981036</v>
+        <v>12.4712959810148</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.782524010208931</v>
       </c>
       <c r="O25">
-        <v>11.94326555338579</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.90282675274527</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.63649357365592</v>
+        <v>14.07455652267265</v>
       </c>
       <c r="C2">
-        <v>6.722549672806986</v>
+        <v>6.858228668643915</v>
       </c>
       <c r="D2">
-        <v>4.903053874591149</v>
+        <v>5.067554770911582</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.57010023221585</v>
+        <v>26.40292409781446</v>
       </c>
       <c r="G2">
-        <v>34.30115480783281</v>
+        <v>32.17608661611448</v>
       </c>
       <c r="H2">
-        <v>3.286305363337138</v>
+        <v>3.122987811188694</v>
       </c>
       <c r="I2">
-        <v>3.877635059956567</v>
+        <v>3.670720644277761</v>
       </c>
       <c r="J2">
-        <v>11.91653046883382</v>
+        <v>11.59209034987867</v>
       </c>
       <c r="K2">
-        <v>19.30924122556273</v>
+        <v>18.24293779260666</v>
       </c>
       <c r="L2">
-        <v>6.006105820512595</v>
+        <v>14.42418542263313</v>
       </c>
       <c r="M2">
-        <v>11.46251237686759</v>
+        <v>12.59466562420615</v>
       </c>
       <c r="N2">
-        <v>7.439610430374414</v>
+        <v>5.919673169121497</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.42831757277141</v>
       </c>
       <c r="P2">
-        <v>14.11420705650862</v>
+        <v>7.678395910359609</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.80519880616716</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.77089114317583</v>
+        <v>13.2485598556776</v>
       </c>
       <c r="C3">
-        <v>6.365334628888567</v>
+        <v>6.424216814975747</v>
       </c>
       <c r="D3">
-        <v>4.709146740583587</v>
+        <v>4.867134469757135</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.12133752175874</v>
+        <v>26.03756582958361</v>
       </c>
       <c r="G3">
-        <v>33.6657119657975</v>
+        <v>31.74128362876986</v>
       </c>
       <c r="H3">
-        <v>3.501685814391036</v>
+        <v>3.321924757338294</v>
       </c>
       <c r="I3">
-        <v>4.047599946826773</v>
+        <v>3.820521131618308</v>
       </c>
       <c r="J3">
-        <v>11.87470720045811</v>
+        <v>11.53270800145516</v>
       </c>
       <c r="K3">
-        <v>19.21505341174194</v>
+        <v>18.20677475497429</v>
       </c>
       <c r="L3">
-        <v>5.933194379649843</v>
+        <v>14.48894063162007</v>
       </c>
       <c r="M3">
-        <v>10.78739703084314</v>
+        <v>12.50375216212024</v>
       </c>
       <c r="N3">
-        <v>7.204920029625174</v>
+        <v>5.856173695834005</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.70178521064879</v>
       </c>
       <c r="P3">
-        <v>14.25432498624682</v>
+        <v>7.440669165204018</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.94517972259033</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.21025797060686</v>
+        <v>12.71207800471626</v>
       </c>
       <c r="C4">
-        <v>6.13804279327756</v>
+        <v>6.14682012984257</v>
       </c>
       <c r="D4">
-        <v>4.586775176887278</v>
+        <v>4.740894394338917</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.84852531465381</v>
+        <v>25.81528277461128</v>
       </c>
       <c r="G4">
-        <v>33.27903026190852</v>
+        <v>31.4812537636083</v>
       </c>
       <c r="H4">
-        <v>3.63887853130978</v>
+        <v>3.448726902708406</v>
       </c>
       <c r="I4">
-        <v>4.156450012297113</v>
+        <v>3.916778378053085</v>
       </c>
       <c r="J4">
-        <v>11.85161357192695</v>
+        <v>11.49659145260471</v>
       </c>
       <c r="K4">
-        <v>19.15991659276614</v>
+        <v>18.18622734397652</v>
       </c>
       <c r="L4">
-        <v>5.886859964736069</v>
+        <v>14.52701214229898</v>
       </c>
       <c r="M4">
-        <v>10.37035912236811</v>
+        <v>12.46426821841232</v>
       </c>
       <c r="N4">
-        <v>7.057598462004543</v>
+        <v>5.815715345345987</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.25791573770728</v>
       </c>
       <c r="P4">
-        <v>14.34154869739952</v>
+        <v>7.291815302316595</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.0324065168842</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.96922707114171</v>
+        <v>12.48085867953964</v>
       </c>
       <c r="C5">
-        <v>6.04837858035522</v>
+        <v>6.03663346579369</v>
       </c>
       <c r="D5">
-        <v>4.537275138731469</v>
+        <v>4.689839833119513</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.7294695148971</v>
+        <v>25.71685107530117</v>
       </c>
       <c r="G5">
-        <v>33.10760258950959</v>
+        <v>31.36275655296156</v>
       </c>
       <c r="H5">
-        <v>3.696417569134749</v>
+        <v>3.501936101358865</v>
       </c>
       <c r="I5">
-        <v>4.204411328814246</v>
+        <v>3.959952667089438</v>
       </c>
       <c r="J5">
-        <v>11.84017534310963</v>
+        <v>11.47928889226414</v>
       </c>
       <c r="K5">
-        <v>19.13179077483161</v>
+        <v>18.1722432741291</v>
       </c>
       <c r="L5">
-        <v>5.866913340800449</v>
+        <v>14.53656841376272</v>
       </c>
       <c r="M5">
-        <v>10.19479505629514</v>
+        <v>12.44874970550186</v>
       </c>
       <c r="N5">
-        <v>6.997875938883922</v>
+        <v>5.798231506635844</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.0826519401392</v>
       </c>
       <c r="P5">
-        <v>14.37622364211501</v>
+        <v>7.231530536481398</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.06730574076222</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.92221655557518</v>
+        <v>12.43553387495152</v>
       </c>
       <c r="C6">
-        <v>6.039426256055217</v>
+        <v>6.024996837587941</v>
       </c>
       <c r="D6">
-        <v>4.530410405628991</v>
+        <v>4.682695649444427</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.69916208043066</v>
+        <v>25.69024960608457</v>
       </c>
       <c r="G6">
-        <v>33.06103141244557</v>
+        <v>31.32570597392928</v>
       </c>
       <c r="H6">
-        <v>3.706500973541332</v>
+        <v>3.511272200519835</v>
       </c>
       <c r="I6">
-        <v>4.215588056014163</v>
+        <v>3.970858874326689</v>
       </c>
       <c r="J6">
-        <v>11.83505174092055</v>
+        <v>11.47315201707269</v>
       </c>
       <c r="K6">
-        <v>19.11942352507494</v>
+        <v>18.16259393005959</v>
       </c>
       <c r="L6">
-        <v>5.862757453551139</v>
+        <v>14.53137792253293</v>
       </c>
       <c r="M6">
-        <v>10.16410099736136</v>
+        <v>12.4420485565825</v>
       </c>
       <c r="N6">
-        <v>6.989214675416716</v>
+        <v>5.794540931631118</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.05200523823643</v>
       </c>
       <c r="P6">
-        <v>14.38056185560898</v>
+        <v>7.222747302329882</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.07193042936192</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18950696790948</v>
+        <v>12.68736959231071</v>
       </c>
       <c r="C7">
-        <v>6.153079281163791</v>
+        <v>6.15469746053912</v>
       </c>
       <c r="D7">
-        <v>4.589879062103102</v>
+        <v>4.748958953575142</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.81818095291189</v>
+        <v>25.76932733564986</v>
       </c>
       <c r="G7">
-        <v>33.22741721674836</v>
+        <v>31.49771584248268</v>
       </c>
       <c r="H7">
-        <v>3.64086554092418</v>
+        <v>3.4512186678234</v>
       </c>
       <c r="I7">
-        <v>4.165417947490485</v>
+        <v>3.927682314358717</v>
       </c>
       <c r="J7">
-        <v>11.84257406220774</v>
+        <v>11.44681754218428</v>
       </c>
       <c r="K7">
-        <v>19.13846485490197</v>
+        <v>18.15717413302069</v>
       </c>
       <c r="L7">
-        <v>5.884373873798873</v>
+        <v>14.5011003646115</v>
       </c>
       <c r="M7">
-        <v>10.36460361853366</v>
+        <v>12.44632546438721</v>
       </c>
       <c r="N7">
-        <v>7.060309127554213</v>
+        <v>5.813181391665922</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.24581228505681</v>
       </c>
       <c r="P7">
-        <v>14.3381364045463</v>
+        <v>7.294016211445762</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.02810341869906</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.3225557269348</v>
+        <v>13.76137025796194</v>
       </c>
       <c r="C8">
-        <v>6.621254419441171</v>
+        <v>6.705859761806209</v>
       </c>
       <c r="D8">
-        <v>4.841657738082489</v>
+        <v>5.019861414332532</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.37770448710478</v>
+        <v>26.18630786948732</v>
       </c>
       <c r="G8">
-        <v>34.01779395075368</v>
+        <v>32.17860348405693</v>
       </c>
       <c r="H8">
-        <v>3.361076939704827</v>
+        <v>3.194004682077691</v>
       </c>
       <c r="I8">
-        <v>3.945895896727952</v>
+        <v>3.735744702456848</v>
       </c>
       <c r="J8">
-        <v>11.8899488107451</v>
+        <v>11.42744661910323</v>
       </c>
       <c r="K8">
-        <v>19.24864155571285</v>
+        <v>18.17512513753994</v>
       </c>
       <c r="L8">
-        <v>5.978446634671817</v>
+        <v>14.4000497296718</v>
       </c>
       <c r="M8">
-        <v>11.2121317831428</v>
+        <v>12.52301895052032</v>
       </c>
       <c r="N8">
-        <v>7.363885340279343</v>
+        <v>5.894750601326846</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.15949187168035</v>
       </c>
       <c r="P8">
-        <v>14.15736904650415</v>
+        <v>7.600159671743158</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.84444524772711</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.33754311110574</v>
+        <v>15.67588840927681</v>
       </c>
       <c r="C9">
-        <v>7.449141675719845</v>
+        <v>7.70259421954761</v>
       </c>
       <c r="D9">
-        <v>5.300695310657303</v>
+        <v>5.498464605343226</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.5426557754913</v>
+        <v>27.12777560359453</v>
       </c>
       <c r="G9">
-        <v>35.67511971932305</v>
+        <v>33.4075639215075</v>
       </c>
       <c r="H9">
-        <v>2.848867995840759</v>
+        <v>2.721688013169381</v>
       </c>
       <c r="I9">
-        <v>3.5368471642342</v>
+        <v>3.374760213980998</v>
       </c>
       <c r="J9">
-        <v>12.01946691213791</v>
+        <v>11.55382710697481</v>
       </c>
       <c r="K9">
-        <v>19.52350693009816</v>
+        <v>18.29141490688218</v>
       </c>
       <c r="L9">
-        <v>6.154322643674848</v>
+        <v>14.24694811775095</v>
       </c>
       <c r="M9">
-        <v>12.91615963371515</v>
+        <v>12.84494125654575</v>
       </c>
       <c r="N9">
-        <v>7.925225841313933</v>
+        <v>6.047471927263132</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.82620787017343</v>
       </c>
       <c r="P9">
-        <v>13.81831598038022</v>
+        <v>8.170518427368803</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.50479878328725</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.61321613565576</v>
+        <v>16.86624778315122</v>
       </c>
       <c r="C10">
-        <v>8.047038113157507</v>
+        <v>8.366613613321276</v>
       </c>
       <c r="D10">
-        <v>5.578302338547505</v>
+        <v>5.813411927793042</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.23557579523058</v>
+        <v>27.58265372526492</v>
       </c>
       <c r="G10">
-        <v>36.66443725620285</v>
+        <v>34.48968552741879</v>
       </c>
       <c r="H10">
-        <v>2.523683287326563</v>
+        <v>2.427075680039092</v>
       </c>
       <c r="I10">
-        <v>3.26829694093203</v>
+        <v>3.14363819157764</v>
       </c>
       <c r="J10">
-        <v>12.08375675766603</v>
+        <v>11.3889356362686</v>
       </c>
       <c r="K10">
-        <v>19.64494495183267</v>
+        <v>18.25719504854328</v>
       </c>
       <c r="L10">
-        <v>6.24042285195231</v>
+        <v>14.03024920987772</v>
       </c>
       <c r="M10">
-        <v>14.01688515216197</v>
+        <v>13.05441963465831</v>
       </c>
       <c r="N10">
-        <v>8.226660388434569</v>
+        <v>6.119694403920004</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.8717635268007</v>
       </c>
       <c r="P10">
-        <v>13.55847571752129</v>
+        <v>8.476047408499401</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.24418491990427</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.70516411716275</v>
+        <v>16.94188970887271</v>
       </c>
       <c r="C11">
-        <v>8.521909705858571</v>
+        <v>8.766196686692581</v>
       </c>
       <c r="D11">
-        <v>5.349080605388246</v>
+        <v>5.626733102765756</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.16409437083774</v>
+        <v>26.38391084132656</v>
       </c>
       <c r="G11">
-        <v>35.21145049879851</v>
+        <v>33.89367541613981</v>
       </c>
       <c r="H11">
-        <v>3.301291916525671</v>
+        <v>3.237011831622404</v>
       </c>
       <c r="I11">
-        <v>3.217233885619804</v>
+        <v>3.109536545971262</v>
       </c>
       <c r="J11">
-        <v>11.75595187085718</v>
+        <v>10.67222804035802</v>
       </c>
       <c r="K11">
-        <v>18.94833773487694</v>
+        <v>17.5290498513339</v>
       </c>
       <c r="L11">
-        <v>6.02706089607543</v>
+        <v>13.41121585688648</v>
       </c>
       <c r="M11">
-        <v>14.29075614051335</v>
+        <v>12.59504196893046</v>
       </c>
       <c r="N11">
-        <v>7.580972719321149</v>
+        <v>5.929028980161298</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.08658605389244</v>
       </c>
       <c r="P11">
-        <v>13.33269281771328</v>
+        <v>7.814783468252869</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.06216031823651</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.53824344886472</v>
+        <v>16.79113476285917</v>
       </c>
       <c r="C12">
-        <v>8.784987077143827</v>
+        <v>8.971150285716972</v>
       </c>
       <c r="D12">
-        <v>5.091634756982888</v>
+        <v>5.380771678385102</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.14050457527287</v>
+        <v>25.3613742515334</v>
       </c>
       <c r="G12">
-        <v>33.82387212197794</v>
+        <v>32.97872195821095</v>
       </c>
       <c r="H12">
-        <v>4.533400918908476</v>
+        <v>4.487485389245213</v>
       </c>
       <c r="I12">
-        <v>3.210869592021353</v>
+        <v>3.105680619867487</v>
       </c>
       <c r="J12">
-        <v>11.47561223911359</v>
+        <v>10.27214331590161</v>
       </c>
       <c r="K12">
-        <v>18.36666054362055</v>
+        <v>16.98728917098023</v>
       </c>
       <c r="L12">
-        <v>5.903959476082097</v>
+        <v>12.99422590970139</v>
       </c>
       <c r="M12">
-        <v>14.30181449649203</v>
+        <v>12.20134246238586</v>
       </c>
       <c r="N12">
-        <v>6.986371410662764</v>
+        <v>5.828198372584503</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.07601186472909</v>
       </c>
       <c r="P12">
-        <v>13.21941402796165</v>
+        <v>7.206582681272988</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.99052032349105</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.13588350119309</v>
+        <v>16.44039097388777</v>
       </c>
       <c r="C13">
-        <v>8.927568758858525</v>
+        <v>9.085247722452591</v>
       </c>
       <c r="D13">
-        <v>4.796720449517649</v>
+        <v>5.06457871968321</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.04049271987546</v>
+        <v>24.39762723253884</v>
       </c>
       <c r="G13">
-        <v>32.31409985808331</v>
+        <v>31.52081883434626</v>
       </c>
       <c r="H13">
-        <v>5.880713586338471</v>
+        <v>5.841944693750389</v>
       </c>
       <c r="I13">
-        <v>3.252453880361023</v>
+        <v>3.140358835016716</v>
       </c>
       <c r="J13">
-        <v>11.20083918102575</v>
+        <v>10.11937488038932</v>
       </c>
       <c r="K13">
-        <v>17.80663647066828</v>
+        <v>16.54176269848505</v>
       </c>
       <c r="L13">
-        <v>5.84154181688413</v>
+        <v>12.68391702247759</v>
       </c>
       <c r="M13">
-        <v>14.10760952514826</v>
+        <v>11.83037722167424</v>
       </c>
       <c r="N13">
-        <v>6.398803883393271</v>
+        <v>5.78878060532735</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.89937967476305</v>
       </c>
       <c r="P13">
-        <v>13.17906229165059</v>
+        <v>6.606765993224803</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.98824453739376</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.7377330255821</v>
+        <v>16.09477133365544</v>
       </c>
       <c r="C14">
-        <v>8.979485840230634</v>
+        <v>9.130355052834489</v>
       </c>
       <c r="D14">
-        <v>4.572486623979796</v>
+        <v>4.811741580055841</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.2280605584969</v>
+        <v>23.73780232745484</v>
       </c>
       <c r="G14">
-        <v>31.18597394946465</v>
+        <v>30.25312097637696</v>
       </c>
       <c r="H14">
-        <v>6.857022829942388</v>
+        <v>6.82012298638926</v>
       </c>
       <c r="I14">
-        <v>3.305857804224436</v>
+        <v>3.185268257151629</v>
       </c>
       <c r="J14">
-        <v>11.00983352166331</v>
+        <v>10.10552969552574</v>
       </c>
       <c r="K14">
-        <v>17.42292197345734</v>
+        <v>16.26758999171982</v>
       </c>
       <c r="L14">
-        <v>5.835684368257325</v>
+        <v>12.50613590984292</v>
       </c>
       <c r="M14">
-        <v>13.8753250822819</v>
+        <v>11.58017319471236</v>
       </c>
       <c r="N14">
-        <v>5.999594155310463</v>
+        <v>5.798703961374571</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.69690318575142</v>
       </c>
       <c r="P14">
-        <v>13.18496561339457</v>
+        <v>6.19947491083569</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.01588198693546</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.58384547912581</v>
+        <v>15.96078407989737</v>
       </c>
       <c r="C15">
-        <v>8.971804239383225</v>
+        <v>9.126994328801832</v>
       </c>
       <c r="D15">
-        <v>4.510735844986251</v>
+        <v>4.737406749538457</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.00658306928919</v>
+        <v>23.57781840200331</v>
       </c>
       <c r="G15">
-        <v>30.87148423257829</v>
+        <v>29.83267503799038</v>
       </c>
       <c r="H15">
-        <v>7.087745130980309</v>
+        <v>7.05035004082186</v>
       </c>
       <c r="I15">
-        <v>3.333631790516299</v>
+        <v>3.209694884669273</v>
       </c>
       <c r="J15">
-        <v>10.96229138857791</v>
+        <v>10.14022859683003</v>
       </c>
       <c r="K15">
-        <v>17.32810623660275</v>
+        <v>16.2121390597028</v>
       </c>
       <c r="L15">
-        <v>5.83707626420182</v>
+        <v>12.47570952737123</v>
       </c>
       <c r="M15">
-        <v>13.77272876245871</v>
+        <v>11.51975944248973</v>
       </c>
       <c r="N15">
-        <v>5.902676871789594</v>
+        <v>5.804113355407026</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.60920174335695</v>
       </c>
       <c r="P15">
-        <v>13.19904594635536</v>
+        <v>6.100994964140591</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.03362013851187</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.10184237102676</v>
+        <v>15.53761387297948</v>
       </c>
       <c r="C16">
-        <v>8.716366858848465</v>
+        <v>8.91628118087198</v>
       </c>
       <c r="D16">
-        <v>4.441862330030745</v>
+        <v>4.62218156110143</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.89418389218499</v>
+        <v>23.66634872913586</v>
       </c>
       <c r="G16">
-        <v>30.68391795904598</v>
+        <v>29.06650886068791</v>
       </c>
       <c r="H16">
-        <v>6.916833596842762</v>
+        <v>6.870206080265845</v>
       </c>
       <c r="I16">
-        <v>3.444857713418886</v>
+        <v>3.30321621320683</v>
       </c>
       <c r="J16">
-        <v>10.98381739145121</v>
+        <v>10.49743283622851</v>
       </c>
       <c r="K16">
-        <v>17.37706721455963</v>
+        <v>16.3646030103027</v>
       </c>
       <c r="L16">
-        <v>5.807778699915591</v>
+        <v>12.63326873557527</v>
       </c>
       <c r="M16">
-        <v>13.34566210399152</v>
+        <v>11.56161629752254</v>
       </c>
       <c r="N16">
-        <v>5.878372882265632</v>
+        <v>5.777019442995088</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.24614619570212</v>
       </c>
       <c r="P16">
-        <v>13.311349421444</v>
+        <v>6.081172183537345</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.13230488021162</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.94698593238865</v>
+        <v>15.39393461241561</v>
       </c>
       <c r="C17">
-        <v>8.487549371312628</v>
+        <v>8.713906615158555</v>
       </c>
       <c r="D17">
-        <v>4.511319532905079</v>
+        <v>4.676432339525185</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.24449520042962</v>
+        <v>24.07042265467977</v>
       </c>
       <c r="G17">
-        <v>31.14916233545154</v>
+        <v>29.24956026123338</v>
       </c>
       <c r="H17">
-        <v>6.242250242198896</v>
+        <v>6.185784989879773</v>
       </c>
       <c r="I17">
-        <v>3.502643746092457</v>
+        <v>3.352663894582983</v>
       </c>
       <c r="J17">
-        <v>11.10183321236556</v>
+        <v>10.74959792976089</v>
       </c>
       <c r="K17">
-        <v>17.61666847071419</v>
+        <v>16.61858547854575</v>
       </c>
       <c r="L17">
-        <v>5.781712847583274</v>
+        <v>12.85052331779994</v>
       </c>
       <c r="M17">
-        <v>13.14062519937298</v>
+        <v>11.71521153558748</v>
       </c>
       <c r="N17">
-        <v>6.069843157109021</v>
+        <v>5.744251408597894</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.06676095569653</v>
       </c>
       <c r="P17">
-        <v>13.39414668579467</v>
+        <v>6.279825393834851</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.19748136956309</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.07406390367995</v>
+        <v>15.49943429764089</v>
       </c>
       <c r="C18">
-        <v>8.247207027340972</v>
+        <v>8.500669638009461</v>
       </c>
       <c r="D18">
-        <v>4.707369149159879</v>
+        <v>4.873115680682607</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.0530717249037</v>
+        <v>24.84477427612426</v>
       </c>
       <c r="G18">
-        <v>32.26168068901552</v>
+        <v>30.15483183590807</v>
       </c>
       <c r="H18">
-        <v>5.103513872572125</v>
+        <v>5.033090443662484</v>
       </c>
       <c r="I18">
-        <v>3.509549648822943</v>
+        <v>3.356074571594545</v>
       </c>
       <c r="J18">
-        <v>11.3227098787983</v>
+        <v>11.0085600544105</v>
       </c>
       <c r="K18">
-        <v>18.06725892115267</v>
+        <v>17.02455360323804</v>
       </c>
       <c r="L18">
-        <v>5.795092629418274</v>
+        <v>13.1745481415044</v>
       </c>
       <c r="M18">
-        <v>13.11273633253021</v>
+        <v>12.00291030675558</v>
       </c>
       <c r="N18">
-        <v>6.491267291090448</v>
+        <v>5.741861054002836</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.0441969784118</v>
       </c>
       <c r="P18">
-        <v>13.47110444896188</v>
+        <v>6.711494156080879</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.2491528804561</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.38788592977864</v>
+        <v>15.77120929767003</v>
       </c>
       <c r="C19">
-        <v>8.048807266747799</v>
+        <v>8.334500959286936</v>
       </c>
       <c r="D19">
-        <v>4.996806263415811</v>
+        <v>5.172227972944835</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.12556550159982</v>
+        <v>25.8292966731909</v>
       </c>
       <c r="G19">
-        <v>33.72956013441953</v>
+        <v>31.43765788886448</v>
       </c>
       <c r="H19">
-        <v>3.820034165906375</v>
+        <v>3.729550876134311</v>
       </c>
       <c r="I19">
-        <v>3.489970944342068</v>
+        <v>3.340508105615756</v>
       </c>
       <c r="J19">
-        <v>11.59725371766196</v>
+        <v>11.26905890297897</v>
       </c>
       <c r="K19">
-        <v>18.63075326293962</v>
+        <v>17.50693562199751</v>
       </c>
       <c r="L19">
-        <v>5.894671349529682</v>
+        <v>13.54880166725186</v>
       </c>
       <c r="M19">
-        <v>13.22479662169018</v>
+        <v>12.363091074504</v>
       </c>
       <c r="N19">
-        <v>7.098695553415681</v>
+        <v>5.818815077845913</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.14944174654438</v>
       </c>
       <c r="P19">
-        <v>13.54705044681551</v>
+        <v>7.330691917980298</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.29420504362144</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.2423774451661</v>
+        <v>16.53068123965437</v>
       </c>
       <c r="C20">
-        <v>7.935157586716786</v>
+        <v>8.267156979011398</v>
       </c>
       <c r="D20">
-        <v>5.514561870940292</v>
+        <v>5.724403542005964</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.96438509123335</v>
+        <v>27.43218862663459</v>
       </c>
       <c r="G20">
-        <v>36.25526522585596</v>
+        <v>33.83736921188699</v>
       </c>
       <c r="H20">
-        <v>2.610677255559823</v>
+        <v>2.504062937010117</v>
       </c>
       <c r="I20">
-        <v>3.365829901750312</v>
+        <v>3.23468398707617</v>
       </c>
       <c r="J20">
-        <v>12.03772320510183</v>
+        <v>11.54137146175541</v>
       </c>
       <c r="K20">
-        <v>19.54577055270503</v>
+        <v>18.23403745754451</v>
       </c>
       <c r="L20">
-        <v>6.210543472918791</v>
+        <v>14.06304300538308</v>
       </c>
       <c r="M20">
-        <v>13.72633947165711</v>
+        <v>12.97130392028548</v>
       </c>
       <c r="N20">
-        <v>8.153983840671529</v>
+        <v>6.09466355951092</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.61327595893629</v>
       </c>
       <c r="P20">
-        <v>13.6154257286856</v>
+        <v>8.403239150749149</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.30874459231056</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.26481782391533</v>
+        <v>17.41746229580043</v>
       </c>
       <c r="C21">
-        <v>8.336731419945369</v>
+        <v>8.59329510438373</v>
       </c>
       <c r="D21">
-        <v>5.782845879460535</v>
+        <v>6.103661066968642</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.75775301998936</v>
+        <v>27.73371562573251</v>
       </c>
       <c r="G21">
-        <v>37.37742764636874</v>
+        <v>36.18075097427015</v>
       </c>
       <c r="H21">
-        <v>2.324606156989383</v>
+        <v>2.250498216218864</v>
       </c>
       <c r="I21">
-        <v>3.151489632333814</v>
+        <v>3.057826930652287</v>
       </c>
       <c r="J21">
-        <v>12.15942073203032</v>
+        <v>10.79577885083859</v>
       </c>
       <c r="K21">
-        <v>19.78779685497906</v>
+        <v>18.1760081324776</v>
       </c>
       <c r="L21">
-        <v>6.329418515301917</v>
+        <v>13.87547326080242</v>
       </c>
       <c r="M21">
-        <v>14.56824545321147</v>
+        <v>13.12047675596598</v>
       </c>
       <c r="N21">
-        <v>8.519932336584652</v>
+        <v>6.195008307046765</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.32270340161481</v>
       </c>
       <c r="P21">
-        <v>13.44091914303845</v>
+        <v>8.76881264276563</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.10405176619174</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.89592296088575</v>
+        <v>17.96097917152477</v>
       </c>
       <c r="C22">
-        <v>8.587977714259631</v>
+        <v>8.786941764132768</v>
       </c>
       <c r="D22">
-        <v>5.928901378100967</v>
+        <v>6.325917731516685</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.22872853159139</v>
+        <v>27.86956816091118</v>
       </c>
       <c r="G22">
-        <v>38.05629532133111</v>
+        <v>37.77407769186213</v>
       </c>
       <c r="H22">
-        <v>2.153648901495449</v>
+        <v>2.100310645627099</v>
       </c>
       <c r="I22">
-        <v>3.006360259922985</v>
+        <v>2.934392214281329</v>
       </c>
       <c r="J22">
-        <v>12.23193442337342</v>
+        <v>10.29650701645991</v>
       </c>
       <c r="K22">
-        <v>19.93120277420912</v>
+        <v>18.11418032028628</v>
       </c>
       <c r="L22">
-        <v>6.390559884574401</v>
+        <v>13.73624012134931</v>
       </c>
       <c r="M22">
-        <v>15.0868434919066</v>
+        <v>13.20660447043363</v>
       </c>
       <c r="N22">
-        <v>8.703370942442126</v>
+        <v>6.246023436449573</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.75307420473743</v>
       </c>
       <c r="P22">
-        <v>13.32470727499253</v>
+        <v>8.951152038657041</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.96918999738988</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.57694988486509</v>
+        <v>17.69671004965661</v>
       </c>
       <c r="C23">
-        <v>8.439771426901155</v>
+        <v>8.685159315399574</v>
       </c>
       <c r="D23">
-        <v>5.847773889986494</v>
+        <v>6.193063724789329</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.0075050530357</v>
+        <v>27.86588682397463</v>
       </c>
       <c r="G23">
-        <v>37.74511740155778</v>
+        <v>36.80568698515082</v>
       </c>
       <c r="H23">
-        <v>2.243398698798283</v>
+        <v>2.178028577692078</v>
       </c>
       <c r="I23">
-        <v>3.072282028790644</v>
+        <v>2.985725072317372</v>
       </c>
       <c r="J23">
-        <v>12.20288349498833</v>
+        <v>10.65287196167424</v>
       </c>
       <c r="K23">
-        <v>19.87783681037461</v>
+        <v>18.19070206284668</v>
       </c>
       <c r="L23">
-        <v>6.360341263021018</v>
+        <v>13.84154820343723</v>
       </c>
       <c r="M23">
-        <v>14.81537925486012</v>
+        <v>13.1949116262038</v>
       </c>
       <c r="N23">
-        <v>8.602342930704248</v>
+        <v>6.221267003017848</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.54047798838509</v>
       </c>
       <c r="P23">
-        <v>13.39054602768641</v>
+        <v>8.851591047041033</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.0461034174885</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.29108551441257</v>
+        <v>16.57554671454589</v>
       </c>
       <c r="C24">
-        <v>7.886868426495777</v>
+        <v>8.219516836570294</v>
       </c>
       <c r="D24">
-        <v>5.537681699429683</v>
+        <v>5.747906134089986</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.12308818890248</v>
+        <v>27.58293834833756</v>
       </c>
       <c r="G24">
-        <v>36.48710418364826</v>
+        <v>34.04018159330606</v>
       </c>
       <c r="H24">
-        <v>2.592483165101152</v>
+        <v>2.48589534383562</v>
       </c>
       <c r="I24">
-        <v>3.347214505252395</v>
+        <v>3.21307365158778</v>
       </c>
       <c r="J24">
-        <v>12.08292270759992</v>
+        <v>11.58939400703188</v>
       </c>
       <c r="K24">
-        <v>19.64499500350551</v>
+        <v>18.32367875410591</v>
       </c>
       <c r="L24">
-        <v>6.239723078193972</v>
+        <v>14.13330108467855</v>
       </c>
       <c r="M24">
-        <v>13.73580803517214</v>
+        <v>13.03718518790028</v>
       </c>
       <c r="N24">
-        <v>8.216492349551256</v>
+        <v>6.121093471204888</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.62272752167812</v>
       </c>
       <c r="P24">
-        <v>13.6351389533613</v>
+        <v>8.467034648167415</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.32271738118484</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.7912007233882</v>
+        <v>15.16217647883675</v>
       </c>
       <c r="C25">
-        <v>7.257486773496555</v>
+        <v>7.48139218723943</v>
       </c>
       <c r="D25">
-        <v>5.185877983521183</v>
+        <v>5.37178334878999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.17710953592911</v>
+        <v>26.84705786347587</v>
       </c>
       <c r="G25">
-        <v>35.14153090832698</v>
+        <v>32.89839246176118</v>
       </c>
       <c r="H25">
-        <v>2.985376158536988</v>
+        <v>2.84673138186629</v>
       </c>
       <c r="I25">
-        <v>3.6589769063807</v>
+        <v>3.485930226671377</v>
       </c>
       <c r="J25">
-        <v>11.96651392142293</v>
+        <v>11.56014054858354</v>
       </c>
       <c r="K25">
-        <v>19.40979350415762</v>
+        <v>18.23598029595888</v>
       </c>
       <c r="L25">
-        <v>6.104337394328732</v>
+        <v>14.27200216221925</v>
       </c>
       <c r="M25">
-        <v>12.4712959810148</v>
+        <v>12.72815581908118</v>
       </c>
       <c r="N25">
-        <v>7.782524010208931</v>
+        <v>6.004221648204421</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.40007093741186</v>
       </c>
       <c r="P25">
-        <v>13.90282675274527</v>
+        <v>8.025572907554979</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.59292532857566</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
